--- a/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1B1EDC8-8949-0340-90E9-C61D175086E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83B7635B-EDCC-7B43-90A8-859FCF2AE53B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-dat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1411" uniqueCount="1104">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1411" uniqueCount="1105">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -4512,12 +4512,6 @@
     <t>Oracle must back up user-level information per a defined frequency.</t>
   </si>
   <si>
-    <t>Information system backup is a critical step in maintaining data assurance and availability.
-User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, DoD organizations are required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
-Applications performing backups must be capable of backing up user-level information per the DoD-defined frequency.
-Databases that do not backup information regularly risk the loss of that information in the event of a system failure. Most databases contain functionality to allow regular backups; it is important that this functionality is enabled and configured correctly to prevent data loss.</t>
-  </si>
-  <si>
     <t>Review DBMS settings and site documentation to determine whether Oracle is configured to back up user-level data according to a defined frequency.
 If it is not, this is a finding.
 (The V$RMAN_STATUS view displays the finished and on-going RMAN jobs. For on-going jobs, this view displays progress and status.)</t>
@@ -4538,12 +4532,6 @@
   </si>
   <si>
     <t>Database backup procedures must be defined, documented, and implemented.</t>
-  </si>
-  <si>
-    <t>Information system backup is a critical step in maintaining data assurance and availability.
-User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, DoD organizations are required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
-Applications performing backups must be capable of backing up user-level information per the DoD-defined frequency.
-Database backups provide the required means to restore databases after compromise or loss. Backups help reduce the vulnerability to unauthorized access or hardware loss.</t>
   </si>
   <si>
     <t>Review the database backup procedures and implementation evidence. Evidence of implementation includes records of backup events and physical review of backup media.
@@ -4597,12 +4585,6 @@
     <t>Database recovery procedures must be developed, documented, implemented, and periodically tested.</t>
   </si>
   <si>
-    <t>Information system backup is a critical step in maintaining data assurance and availability.
-User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, DoD organizations are required to ensure user-generated data is backed up at a defined frequency.  This includes data stored on file systems, within databases or within any other storage media.
-Applications performing backups must be capable of backing up user-level information per the DoD-defined frequency.
-Problems with backup procedures or backup media may not be discovered until after a recovery is needed. Testing and verification of procedures provides the opportunity to discover oversights, conflicts, or other issues in the backup procedures or use of media designed to be used.</t>
-  </si>
-  <si>
     <t>Review the testing and verification procedures documented in the system documentation. Review evidence of implementation of testing and verification procedures by reviewing logs from backup and recovery implementation. Logs may be in electronic form or hardcopy and may include email or other notification.
 If testing and verification of backup and recovery procedures is not documented in the system documentation, this is a finding.
 If evidence of testing and verification of backup and recovery procedures does not exist, this is a finding.</t>
@@ -4615,12 +4597,6 @@
   </si>
   <si>
     <t>DBMS backup and restoration files must be protected from unauthorized access.</t>
-  </si>
-  <si>
-    <t>Information system backup is a critical step in maintaining data assurance and availability.
-User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, DoD organizations are required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
-Applications performing backups must be capable of backing up user-level information per the DoD-defined frequency.
-Lost or compromised DBMS backup and restoration files may lead to not only the loss of data, but also the unauthorized access to sensitive data. Backup files need the same protections against unauthorized access when stored on backup media as when online and actively in use by the database system. In addition, the backup media needs to be protected against physical loss. Most DBMS's maintain online copies of critical control files to provide transparent or easy recovery from hard disk loss or other interruptions to database operation.</t>
   </si>
   <si>
     <t>Review file protections assigned to online backup and restoration files. Review access protections and procedures for off-line backup and restoration files.
@@ -4673,29 +4649,6 @@
 Network access is defined as access to an information system by a user (or a process acting on behalf of a user) communicating through a network (e.g., local area network, wide area network, Internet).
 The lack of multifactor authentication makes it much easier for an attacker to gain unauthorized access to a system.
 Transport Layer Security (TLS) is the successor protocol to Secure Sockets Layer (SSL). Although the Oracle configuration parameters have names including 'SSL', such as SSL_VERSION and SSL_CIPHER_SUITES, they refer to TLS.</t>
-  </si>
-  <si>
-    <t>Review DBMS settings, OS settings, and/or enterprise-level authentication/access mechanism settings to determine whether users logging on to privileged accounts via a network are required to use multifactor authentication.
-If users logging on to privileged accounts via a network are not required to use multifactor authentication, this is a finding.
-Use authentication to prove the identities of users who are attempting to log on to the database. Authenticating user identity is imperative in distributed environments, without which there can be little confidence in network security. Passwords are the most common means of authentication. Oracle Database enables strong authentication with Oracle authentication adapters that support various third-party authentication services, including TLS with digital certificates, as well as Smart Cards (CAC, PIV).
-If the $ORACLE_HOME/network/admin/sqlnet.ora contains entries similar to the following, TLS is enabled. (Note: This assumes that a single sqlnet.ora file, in the default location, is in use. Please see the supplemental file "Non-default sqlnet.ora configurations.pdf" for how to find multiple and/or differently located sqlnet.ora files.)
-SQLNET.AUTHENTICATION_SERVICES= (BEQ, TCPS)
-SSL_VERSION = 1.2 or 1.1
-SSL_CLIENT_AUTHENTICATION = TRUE
-WALLET_LOCATION =
-(SOURCE =
-(METHOD = FILE)
-(METHOD_DATA =
-(DIRECTORY = /u01/app/oracle/product/12.1.0/dbhome_1/owm/wallets)
-)
-)
-SSL_CIPHER_SUITES= (SSL_RSA_WITH_AES_256_CBC_SHA384)
-ADR_BASE = /u01/app/oracle
-Note: "SSL_VERSION = 1.2 or 1.1" is the actual value, not a suggestion to use one or the other.</t>
-  </si>
-  <si>
-    <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for network users logging on to privileged accounts.
-If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (CAC/PIV).</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000765
@@ -4743,10 +4696,6 @@
 Note:  "SSL_VERSION = 1.2 or 1.1" is the actual value, not a suggestion to use one or the other.</t>
   </si>
   <si>
-    <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for network users logging on to non-privileged accounts.
-If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (CAC/PIV).</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-000766
 The information system implements multifactor authentication for network access to non-privileged accounts.
 NIST SP 800-53 :: IA-2 (2)
@@ -4792,10 +4741,6 @@
 Note:  "SSL_VERSION = 1.2 or 1.1" is the actual value, not a suggestion to use one or the other.</t>
   </si>
   <si>
-    <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for local users logging on to privileged accounts.
-If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (CAC/PIV).</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-000767
 The information system implements multifactor authentication for local access to privileged accounts.
 NIST SP 800-53 :: IA-2 (3)
@@ -4841,10 +4786,6 @@
 Note:  "SSL_VERSION = 1.2 or 1.1" is the actual value, not a suggestion to use one or the other.</t>
   </si>
   <si>
-    <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for local users logging on to non-privileged accounts.
-If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (CAC/PIV).</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-000768
 The information system implements multifactor authentication for local access to non-privileged accounts.
 NIST SP 800-53 :: IA-2 (4)
@@ -4867,23 +4808,6 @@
 When shared accounts are utilized without another means of identifying individual users, users may deny having performed a particular action.</t>
   </si>
   <si>
-    <t>Review DBMS settings, OS settings, and/or enterprise-level authentication/access mechanism settings to determine whether shared accounts exist. If group accounts do not exist, this is NA.
-Review DBMS settings to determine if individual authentication is required before shared authentication.
-If shared authentication does not require prior individual authentication, this is a finding.
-(Oracle Access Manager may be helpful in meeting this requirement. Notes on Oracle Access Manager follow.)
-Oracle Access Manager is used when there is a need for multifactor authentication of applications front-ending Oracle Datasets that may use group accounts. Oracle Access Manager supports using PKI-based smart cards (CAC, PIV) for multifactor authentication. When a user authenticates to a smart card application, the smart card engine produces a certificate-based authentication token. Can configure a certificate-based authentication scheme in Oracle Access Manager that uses information from the smart card certificate. Certificate-based authentication works with any smart card or similar device that presents an X.509 certificate.
-Check:
-First, check that the Authentication Module is set up properly:
-1) Go to Oracle Access Manager Home Screen and click the Policy Configuration tab.  Select the X509Scheme.
-2) Make sure the Authentication Module option is set to X509Plugin.
-Second, check that the Authentication policy is using the x509Scheme:
-1) Go to Oracle Access Manager Home Screen and click the Policy Configuration tab.
-2) Select Application Domains.  Select Search.
-3) Select the application domain protecting the Oracle Database.
-4) Select the Authentication Polices tab and Click Protected Resource Policy.
-5) Make sure the Authentication Scheme is set to x509Scheme.</t>
-  </si>
-  <si>
     <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require individual authentication prior to authentication for shared account access.
 If appropriate, install Oracle Access Manager to provide multifactor authentication of applications front-ending Oracle Databases and using shared accounts.  After installation, use x509 Authentication modules provided out of the box.</t>
   </si>
@@ -4900,18 +4824,6 @@
   </si>
   <si>
     <t>The DBMS must use organization-defined replay-resistant authentication mechanisms for network access to privileged accounts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An authentication process resists replay attacks if it is impractical to achieve a successful authentication by recording and replaying a previous authentication message.
-Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security), and time synchronous or challenge-response one-time authenticators.
-Replay attacks, if successfully used against a database account, could result in unfettered access to the database settings and data. A successful replay attack against a privileged database account could result in a complete compromise of the database.
-Oracle Database enables you to encrypt data that is sent over a network.  There is no distinction between privileged and non-privileged accounts.
-Encryption of network data provides data privacy so that unauthorized parties are not able to view plaintext data as it passes over the network. Oracle Database also provides protection against two forms of active attacks.
-Data modification attack:  An unauthorized party intercepting data in transit, altering it, and retransmitting it is a data modification attack. For example, intercepting a $100 bank deposit, changing the amount to $10,000, and retransmitting the higher amount is a data modification attack.
-Replay attack:  Repetitively retransmitting an entire set of valid data is a replay attack, such as intercepting a $100 bank withdrawal and retransmitting it ten times, thereby receiving $1,000.
-AES and Triple-DES operate in outer Cipher Block Chaining (CBC) mode.
-The DES algorithm uses a 56-bit key length.
-SHA-1 is in the process of being removed from service within the DoD and it's use is to be limited during the transition to SHA-2.  Use of SHA-1 for digital signature generation is prohibited.  Allowable uses during the transition include CHECKSUM usage and verification of legacy certificate signatures.  SHA-1 is considered a temporary solution during legacy application transitionary periods and should not be engineered into new applications. SHA-2 is the path forward for DoD.  </t>
   </si>
   <si>
     <t>Review DBMS settings, OS settings, and/or enterprise-level authentication/access mechanism settings to determine whether organization-defined replay-resistant authentication mechanisms for network access to privileged accounts exist.
@@ -4940,18 +4852,6 @@
     <t>The DBMS must use organization-defined replay-resistant authentication mechanisms for network access to non-privileged accounts.</t>
   </si>
   <si>
-    <t xml:space="preserve">An authentication process resists replay attacks if it is impractical to achieve a successful authentication by recording and replaying a previous authentication message.
-Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security), and time synchronous or challenge-response one-time authenticators.
-Replay attacks, if successfully used against a database account, could result in access to database data.  A successful replay attack against a non-privileged database account could result in a compromise of data stored on the database.
-Oracle Database enables you to encrypt data that is sent over a network.  There is no distinction between privileged and non-privileged accounts.
-Encryption of network data provides data privacy so that unauthorized parties are not able to view plaintext data as it passes over the network. Oracle Database also provides protection against two forms of active attacks.
-Data modification attack:  An unauthorized party intercepting data in transit, altering it, and retransmitting it is a data modification attack. For example, intercepting a $100 bank deposit, changing the amount to $10,000, and retransmitting the higher amount is a data modification attack.
-Replay attack:  Repetitively retransmitting an entire set of valid data is a replay attack, such as intercepting a $100 bank withdrawal and retransmitting it ten times, thereby receiving $1,000.
-AES and Triple-DES operate in outer Cipher Block Chaining (CBC) mode.
-The DES algorithm uses a 56-bit key length.
-SHA-1 is in the process of being removed from service within the DoD and it's use is to be limited during the transition to SHA-2.  Use of SHA-1 for digital signature generation is prohibited.  Allowable uses during the transition include CHECKSUM usage and verification of legacy certificate signatures.  SHA-1 is considered a temporary solution during legacy application transitionary periods and should not be engineered into new applications. SHA-2 is the path forward for DoD.  </t>
-  </si>
-  <si>
     <t>Review DBMS settings to determine whether organization-defined replay-resistant authentication mechanisms for network access to non-privileged accounts exist.
 If these mechanisms do not exist, this is a finding.
 To check that network encryption is enabled and using site-specified encryption procedures, look in SQLNET.ORA, located at $ORACLE_HOME/network/admin/sqlnet.ora. (Note: This assumes that a single sqlnet.ora file, in the default location, is in use. Please see the supplemental file "Non-default sqlnet.ora configurations.pdf" for how to find multiple and/or differently located sqlnet.ora files.) If encryption is set, entries like the following will be present:
@@ -4975,30 +4875,11 @@
     <t>V-61717</t>
   </si>
   <si>
-    <t>The DBMS must disable user accounts after 35 days of inactivity.</t>
-  </si>
-  <si>
     <t>Password complexity, or strength, is a measure of the effectiveness of a password in resisting attempts at guessing and brute-force attacks.
 To meet password policy requirements, passwords need to be changed at specific policy-based intervals.
 If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.
 Unused or expired DBMS accounts provide a means for undetected, unauthorized access to the database.
 Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP  This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
-  </si>
-  <si>
-    <t>If all user accounts are managed and authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-For accounts managed by Oracle, check DBMS settings to determine if accounts can be automatically disabled by the system after 35 days of inactivity. Also, ask the DBA if an alternative method, such as a stored procedure run daily, to disable Oracle-managed accounts inactive for more than 35 days, has been deployed.
-If the ability to disable accounts after 35 days of inactivity, by either of these means, does not exist, this is a finding.
-- - - - -
-Check to see what profile each user is associated with, if any, with this query:
-select username, profile from dba_users order by 1,2;
-Then check the profile to see what the password_life_time is set to in the table dba_profiles; the password_life_time is a value stored in the LIMIT column, and identified by the value PASSWORD_LIFE_TIME in the RESOURCE_NAME column.
-SQL&gt;select profile, resource_name, resource_type, limit from dba_profiles where upper(resource_name) = 'PASSWORD_LIFE_TIME';</t>
-  </si>
-  <si>
-    <t>For accounts managed by Oracle, determine if it is practical and acceptable to require a password change every 35 days or fewer, rather than the standard 60 days (as specified in SRG-APP-000174-DB-000080).  If it is, issue the statement:
-ALTER PROFILE PPPPPP LIMIT PASSWORD_LIFE_TIME 35;
-(See the Oracle-provided $ORACLE_HOME/rdbms/admin/secconf.sql script for examples.)
-If password changes every 35 days or fewer are unacceptable or impractical, implement an alternative method, such as a stored procedure run daily, to disable accounts inactive for more than 35 days.</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000795
@@ -5022,24 +4903,6 @@
 Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP. This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
   </si>
   <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password verification function, if any, that is in use:
-SELECT * FROM SYS.DBA_PROFILES 
-WHERE RESOURCE_NAME = 'PASSWORD_VERIFY_FUNCTION'
-[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)]
-ORDER BY PROFILE;
-Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the name of the password verification function effective for each profile.
-If, for any profile, the function name is null, this is a finding.
-For each password verification function, examine its source code.
-If it does not enforce the DoD-defined minimum length (15 unless otherwise specified), this is a finding.</t>
-  </si>
-  <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
-If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces DoD requirements.
-(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file 
-&lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-000205
 The information system enforces minimum password length.
 NIST SP 800-53 :: IA-5 (1) (a)
@@ -5059,24 +4922,6 @@
 If the information system or application allows the user to consecutively reuse their password when that password has exceeded its defined lifetime, the end result is a password that is not changed as per policy requirements.
 Password reuse restrictions protect against bypass of password expiration requirements and help protect accounts from password guessing attempts.
 Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP. This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
-  </si>
-  <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password reuse rule, if any, that is in effect:
-SELECT * FROM SYS.DBA_PROFILES 
-WHERE RESOURCE_NAME IN ('PASSWORD_REUSE_MAX', 'PASSWORD_REUSE_TIME')
-[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)]
-ORDER BY PROFILE, RESOURCE_NAME;
-Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the value of the PASSWORD_REUSE_MAX effective for each profile.
-If, for any profile, the PASSWORD_REUSE_MAX value does not enforce the DoD-defined minimum number of password changes before a password may be repeated (five or greater), this is a finding.
-PASSWORD_REUSE_MAX is effective if and only if PASSWORD_REUSE_TIME is specified, so if both are UNLIMITED, this is a finding.</t>
-  </si>
-  <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
-If any user accounts are managed by Oracle:  For each profile, set the PASSWORD_REUSE_MAX to enforce the DoD-defined minimum number of password changes before a password may be repeated (five or greater).
-PASSWORD_REUSE_MAX is effective if and only if PASSWORD_REUSE_TIME is specified, so ensure also that it has a meaningful value.  Since the minimum password lifetime is 1 day, the smallest meaningful value is the same as the PASSWORD_REUSE_MAX value.
-Using PPPPPP as an example, the statement to do this is:
-ALTER PROFILE PPPPPP LIMIT PASSWORD_REUSE_MAX 5 PASSWORD_REUSE_TIME 5;</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000200
@@ -5108,12 +4953,6 @@
 Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the name of the password verification function effective for each profile.
 If, for any profile, the function name is null, this is a finding.
 For each password verification function, examine its source code.  If it does not enforce the organization-defined minimum number of upper-case characters (1 unless otherwise specified), this is a finding.</t>
-  </si>
-  <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
-If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces DoD requirements.
-(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file
-&lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000192
@@ -5218,21 +5057,6 @@
 If the information system or application allows the user to consecutively reuse extensive portions of their password when they change their password, the end result is a password that has not had enough elements changed to meet the policy requirements.
 Changing passwords frequently can thwart password-guessing attempts or re-establish protection of a compromised DBMS account. Minor changes to passwords may not accomplish this since password guessing may be able to continue to build on previous guesses, or the new password may be easily guessed using the old password.
 Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP  This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
-  </si>
-  <si>
-    <t>If all user accounts are managed and authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password verification function, if any, that is in use:
-SELECT * FROM SYS.DBA_PROFILES
-WHERE RESOURCE_NAME = 'PASSWORD_VERIFY_FUNCTION'
-[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)] ORDER BY PROFILE;
-Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the name of the password verification function effective for each profile.
-If, for any profile, the function name is null, this is a finding.
-For each password verification function, examine its source code.
-If it does not enforce the organization-defined minimum number of characters by which the password must differ from the previous password (eight of the characters unless otherwise specified), this is a finding.</t>
-  </si>
-  <si>
-    <t>If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces DoD requirements.
-(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file &lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000195
@@ -5348,23 +5172,11 @@
     <t>V-61735</t>
   </si>
   <si>
-    <t>Procedures for establishing temporary passwords that meet DoD password requirements for new accounts must be defined, documented, and implemented.</t>
-  </si>
-  <si>
     <t>Password maximum lifetime is  the maximum period of time, (typically in days) a user's password may be in effect before the user is forced to change it.
 Passwords need to be changed at specific policy-based intervals as per policy. Any password, no matter how complex, can eventually be cracked.
 One method of minimizing this risk is to use complex passwords and periodically change them. If the application does not limit the lifetime of passwords and force users to change their passwords, there is the risk that the system and/or application passwords could be compromised.
 New accounts authenticated by passwords that are created without a password or with an easily guessed password are vulnerable to unauthorized access. Procedures for creating new accounts with passwords should include the required assignment of a temporary password to be modified by the user upon first use.
 Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP  With respect to Oracle, this requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
-  </si>
-  <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-Where accounts are authenticated using passwords, review procedures and implementation evidence for creation of temporary passwords.
-If the procedures or evidence do not exist or do not enforce passwords to meet DoD password requirements, this is a finding.</t>
-  </si>
-  <si>
-    <t>Implement procedures for assigning temporary passwords to user accounts.
-Procedures should include instructions to meet current DoD password length and complexity requirements and provide a secure method to relay the temporary password to the user.</t>
   </si>
   <si>
     <t>V-61737</t>
@@ -6189,9 +6001,6 @@
   </si>
   <si>
     <t>V-61777</t>
-  </si>
-  <si>
-    <t>The DBMS must automatically terminate emergency accounts after an organization-defined time period for each type of account.</t>
   </si>
   <si>
     <t>Emergency application accounts are typically created due to an unforeseen operational event or could ostensibly be used in the event of a vendor support visit where a support representative requires a temporary unique account in order to perform diagnostic testing or conduct some other support-related activity. When these types of accounts are created, there is a risk that the temporary account may remain in place and active after the support representative has left.
@@ -6907,85 +6716,6 @@
 The Listener is the key for a denial of service attack.  Check to insure the appropriate steps to secure the Oracle Listener are in place at the site.  (Refer to the Fix for more detail on implementing these protections.)</t>
   </si>
   <si>
-    <t>Configure DBMS settings to restrict functionality that could be used to initiate DoS attacks.
-Securing the Network Connection:
-Protecting the network and its traffic from inappropriate access or modification is the essence of network security. You should consider all paths the data travels, and assess the threats on each path and node. Then, take steps to lessen or eliminate those threats and the consequences of a security breach. In addition, monitor and audit to detect either increased threat levels or penetration attempts.
-The following practices improve network security:
-1. Disable the Default Listener.
-All listeners have a unique name instead of the name LISTENER and have startup protection.
-LISTENER=(DESCRIPTION =(ADDRESS = (PROTOCOL = TCP)(HOST=)(PORT = 0)))
-This configuration prevents the default listener from starting.
-2. Prevent online administration by requiring the administrator to have the write privilege on the listener.ora file on the server.
-a. Add or alter this line in the listener.ora file:
-ADMIN_RESTRICTIONS_LISTENER=ON
-b. Use RELOAD to reload the configuration.
-3. Set Protection against crafted network packets on database level.
-SEC_PROTOCOL_ERROR_TRACE_ACTION specifies the action that the database should take when bad packets are received from a possibly malicious client.
-SEC_PROTOCOL_ERROR_TRACE_ACTION = { NONE | TRACE | LOG | ALERT } (TRACE is the default)
-NONE: The database server ignores the bad packets and does not generate any trace files or log messages. (Not recommended)
-TRACE: A detailed trace file is generated when bad packets are received, which can be used to debug any problems in client/server communication.
-LOG: A minimal log message is printed in the alert logfile and in the server trace file. A minimal amount of disk space is used.
-ALERT: An alert message is sent to a DBA or monitoring console.
-SEC_PROTOCOL_ERROR_FURTHER_ACTION specifies the further execution of a server process when receiving bad packets from a possibly malicious client.
-SEC_PROTOCOL_ERROR_FURTHER_ACTION = { CONTINUE | (DELAY,integer) | (DROP,integer) } (DROP,3 is the default)
-CONTINUE: The server process continues execution. The database server may be subject to a Denial of Service (DoS) if bad packets continue to be sent by a malicious client. (Not recommended)
-(DELAY, integer) :The client experiences a delay of integer seconds before the server process accepts the next request from the same client connection. Malicious clients are prevented from excessive consumption of server resources while legitimate clients experience degradation in performance but can continue to function.
-(DROP, integer) : The server forcefully terminates the client connection after integer bad packets. The server protects itself at the expense of the client (for example, a client transaction may be lost). The client may reconnect and attempt the same operation.
-SEC_MAX_FAILED_LOGIN_ATTEMPTS specifies the number of authentication attempts that can be made by a client on a connection to the server process. After the specified number of failure attempts, the connection will be automatically dropped by the server process.
-SEC_MAX_FAILED_LOGIN_ATTEMPTS = n (3 is the default) Values range from 1 to unlimited. (A value of 1 to 3 is recommended)
-For more information about the parameters in listener.ora, see https://docs.oracle.com/database/121/NETRF/listener.htm#NETRF008
-4. When a host computer has multiple IP addresses associated with multiple network interface controller (NIC) cards, configure the listener to the specific IP address.
-You can restrict the listener to listen on a specific IP address. Oracle recommends that you specify the specific IP addresses on these types of computers, rather than allowing the listener to listen on all IP addresses. Restricting the listener to specific IP addresses helps to prevent an intruder from stealing a TCP end point from under the listener process.
-5. Restrict the privileges of the listener, so that it cannot read or write files in the database or the Oracle server address space.
-The default configuration for external procedures does not require a network listener to work with Oracle Database and the extproc agent. The extproc agent is spawned directly by Oracle Database and eliminates the risks that the extproc agent might be spawned by Oracle Listener unexpectedly. This default configuration is recommended for maximum security. For more information about securing external procedures see
-https://docs.oracle.com/database/121/DBSEG/app_devs.htm#DBSEG656
-However, the extproc agent can be configured to be spawned by a listener. In that case (not recommended) the listener should have restricted privileges.
-6. Use a firewall, IAW DoD network policy and guidance.
-Appropriately placed and configured firewalls can prevent outside access to your databases.
-7. Prevent unauthorized administration of the Oracle listener.
-Local administration of the listener is secure by default through the local operating system. Therefore configuring a password is neither required nor recommended for secure local administration. However, a password can be configured for the listener to provide security for administrative operations, such as starting or stopping the listener, viewing a list of supported services, or saving changes to the Listener Control configuration.
-By default, Oracle Net Listener permits only local administration for security reasons. As a policy, the listener can be administered only by the user who started it. This is enforced through local operating system authentication. For example, if user1 starts the listener, then only user1 can administer it. Any other user trying to administer the listener gets an error. The super user is the only exception.
-Oracle recommends that you perform listener administration in the default mode (secure by means of local operating system authentication), and access the system remotely using a remote logon. Oracle Enterprise Manager Cloud Control can also be used for remote administration.
-8. Encrypt network traffic.  (Mandatory for sensitive data and optional for non-sensitive, as covered in other STIG requirements.)
-Where applicable, use Oracle network data encryption to encrypt network traffic among clients, databases, and application servers.
-9. Set Connect Rate to organization defined limit. (Also required by O121-C2-019100/SRG-APP-000245-DB-000132)
-The connection rate limiter feature in Oracle Net Listener enables a database administrator to limit the number of new connections handled by the listener. When this feature is enabled, Oracle Net Listener imposes a user-specified maximum limit on the number of new connections handled by the listener every second.
-CONNECTION_RATE_LISTENER=10
-LISTENER=
-(ADDRESS_LIST=
-(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1521)(RATE_LIMIT=yes))
-(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1522)(RATE_LIMIT=yes))
-(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1526))
-)
-10. Setup Valid Node Checking.
-(See also O121-BP-025600.)
-Valid node checking is a security feature that protects DBMS instances from malevolent or errant Oracle Net connections over TCP/IP, without the need for a firewall or IP address filtering at the operating system-level. The feature is controlled by the three parameters; tcp.validnode_checking, tcp.invited_nodes, and tcp.excluded_nodes.
-Modify the sqlnet.ora file manually
-TCP.VALIDNODE_CHECKING=yes
-(Note: This assumes that a single sqlnet.ora file, in the default location, is in use. Please see the supplemental file "Non-default sqlnet.ora configurations.pdf" for how to find multiple and/or differently located sqlnet.ora files.)
-If this parameter is set to yes, then incoming connections are allowed only if they originate from a node that conforms to the list specified by TCP.INVITED_NODES or TCP.EXCLUDED_NODES parameters.
-The TCP.INVITED_NODES and TCP.EXCLUDED_NODES parameters are valid only when the TCP.VALIDNODE_CHECKING parameter is set to yes (no is the default).
-The TCP.INVITED_NODES and TCP.EXCLUDED_NODES parameters are valid only when the TCP.VALIDNODE_CHECKING parameter is set to yes.
-Modify the listener.ora file manually
-TCP.EXCLUDED_NODES Syntax:
-TCP.EXCLUDED_NODES=(hostname | ip_address, hostname | ip_address, ...)
-Example:
-TCP.EXCLUDED_NODES=(finance.us.example.com, mktg.us.example.com, 192.0.2.25, 172.30.*, 2001:DB8:200C:417A/32)
-TCP.INVITED_NODES Syntax:
-TCP.INVITED_NODES=(hostname | ip_address, hostname | ip_address, ...)
-Example:
-TCP.INVITED_NODES=(sales.us.example.com, hr.us.example.com, 192.0.*, 2001:DB8:200C:433B/32)
-Usage Notes:
-Use TCP.INVITED_NODES to specify which clients are allowed access to the database. This list takes precedence over the TCP.EXCLUDED_NODES parameter if both lists are present. These parameters can use wildcards for IPv4 addresses and CIDR notation for IPv4 and IPv6 addresses.
-11. Apply Listener Security Patches.
-(See also O121-C1-011100/SRG-APP-000133-DB-000205.)
-Critical Patch Updates are cumulative. Therefore, the latest patch will contain all previous security patches for the Listener.
-12. Ensure that listener logging is turned on.
-Listener logging is on by default. If logging is not on, configure logging for all listeners in order to capture Listener commands and brute force password attacks.
-13. Monitor the listener logfile.
-The logfile may contain TNS-01169, TNS-01189, TNS-01190, or TNS-12508 errors, which may signify attacks or inappropriate activity. Monitor the logfile and generate an alert whenever these errors are encountered.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCI-001094
 The information system restricts the ability of individuals to launch organization-defined denial of service attacks against other information systems.
 NIST SP 800-53 :: SC-5 (1)
@@ -7687,33 +7417,6 @@
     <t>Retrieve the settings for concurrent sessions for each profile with the query:
 SELECT * FROM SYS.DBA_PROFILES WHERE RESOURCE_NAME = 'SESSIONS_PER_USER';
 If the DBMS settings for concurrent sessions for each profile are greater than the site-specific maximum number of sessions, this is a finding.</t>
-  </si>
-  <si>
-    <t>Limit concurrent connections for each system account to a number less than or equal to the organization-defined number of sessions using the following SQL. Create profiles that conform to the requirements. Assign users to the appropriate profile.
-The user profile, ORA_STIG_PROFILE, has been provided (starting with Oracle 12.1.0.2) to satisfy the STIG requirements pertaining to the profile parameters. Oracle recommends that this profile be customized with any site-specific requirements and assigned to all users where applicable.  Note: It remains necessary to create a customized replacement for the password validation function, ORA12C_STRONG_VERIFY_FUNCTION, if relying on this technique to verify password complexity.
-The defaults for ORA_STIG_PROFILE are set as follows:
-Resource Name                   Limit
--------------                   ------
-COMPOSITE_LIMIT                 DEFAULT
-SESSIONS_PER_USER               DEFAULT
-CPU_PER_SESSION                 DEFAULT
-CPU_PER_CALL                    DEFAULT
-LOGICAL_READS_PER_SESSION       DEFAULT
-LOGICAL_READS_PER_CALL          DEFAULT
-IDLE_TIME                          15
-CONNECT_TIME                    DEFAULT
-PRIVATE_SGA                     DEFAULT
-FAILED_LOGIN_ATTEMPTS               3 
-PASSWORD_LIFE_TIME                 60
-PASSWORD_REUSE_TIME               365
-PASSWORD_REUSE_MAX                 10
-PASSWORD_VERIFY_FUNCTION    ORA12C_STRONG_VERIFY_FUNCTION
-PASSWORD_LOCK_TIME              UNLIMITED
-PASSWORD_GRACE_TIME                 5
-Change the value of SESSIONS_PER_USER (along with the other parameters, where relevant) from UNLIMITED to DoD-compliant, site-specific requirements and then assign users to the profile.
-ALTER PROFILE ORA_STIG_PROFILE LIMIT SESSIONS_PER_USER &lt;site-specific value&gt;;
-To assign the user to the profile do the following:
-ALTER USER &lt;username&gt; PROFILE ORA_STIG_PROFILE;</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-000054
@@ -9327,11 +9030,1515 @@
 In the Oracle database, the communications with the database and incoming requests are performed by the Oracle Listener.  The Oracle Listener listens on a specific port or ports for connections to a specific database.  The Oracle Listener has configuration files located in the $ORACLE_HOME/network/admin directory.  To check the ports and protocols in use, go to  that directory and review the SQLNET.ora, LISTENER.ora, and the TNSNAMES.ora.  If protocols or ports are in use that are not authorized, this is a finding.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information system backup is a critical step in maintaining data assurance and availability.
+User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD organizations are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS is</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
+Applications performing backups must be capable of backing up user-level information per the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined frequency.
+Databases that do not backup information regularly risk the loss of that information in the event of a system failure. Most databases contain functionality to allow regular backups; it is important that this functionality is enabled and configured correctly to prevent data loss.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information system backup is a critical step in maintaining data assurance and availability.
+User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organizations are required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
+Applications performing backups must be capable of backing up user-level information per the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined frequency.
+Database backups provide the required means to restore databases after compromise or loss. Backups help reduce the vulnerability to unauthorized access or hardware loss.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information system backup is a critical step in maintaining data assurance and availability.
+User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS is</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD organizations are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required to ensure user-generated data is backed up at a defined frequency.  This includes data stored on file systems, within databases or within any other storage media.
+Applications performing backups must be capable of backing up user-level information per the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined frequency.
+Problems with backup procedures or backup media may not be discovered until after a recovery is needed. Testing and verification of procedures provides the opportunity to discover oversights, conflicts, or other issues in the backup procedures or use of media designed to be used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Information system backup is a critical step in maintaining data assurance and availability.
+User-level information is data generated by information system and/or application users. In order to assure availability of this data in the event of a system failure, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organizations are required to ensure user-generated data is backed up at a defined frequency. This includes data stored on file systems, within databases or within any other storage media.
+Applications performing backups must be capable of backing up user-level information per the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined frequency.
+Lost or compromised DBMS backup and restoration files may lead to not only the loss of data, but also the unauthorized access to sensitive data. Backup files need the same protections against unauthorized access when stored on backup media as when online and actively in use by the database system. In addition, the backup media needs to be protected against physical loss. Most DBMS's maintain online copies of critical control files to provide transparent or easy recovery from hard disk loss or other interruptions to database operation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Review DBMS settings, OS settings, and/or enterprise-level authentication/access mechanism settings to determine whether users logging on to privileged accounts via a network are required to use multifactor authentication.
+If users logging on to privileged accounts via a network are not required to use multifactor authentication, this is a finding.
+Use authentication to prove the identities of users who are attempting to log on to the database. Authenticating user identity is imperative in distributed environments, without which there can be little confidence in network security. Passwords are the most common means of authentication. Oracle Database enables strong authentication with Oracle authentication adapters that support various third-party authentication services, including TLS with digital certificates, as well as Smart Cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">CAC, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV).
+If the $ORACLE_HOME/network/admin/sqlnet.ora contains entries similar to the following, TLS is enabled. (Note: This assumes that a single sqlnet.ora file, in the default location, is in use. Please see the supplemental file "Non-default sqlnet.ora configurations.pdf" for how to find multiple and/or differently located sqlnet.ora files.)
+SQLNET.AUTHENTICATION_SERVICES= (BEQ, TCPS)
+SSL_VERSION = 1.2 or 1.1
+SSL_CLIENT_AUTHENTICATION = TRUE
+WALLET_LOCATION =
+(SOURCE =
+(METHOD = FILE)
+(METHOD_DATA =
+(DIRECTORY = /u01/app/oracle/product/12.1.0/dbhome_1/owm/wallets)
+)
+)
+SSL_CIPHER_SUITES= (SSL_RSA_WITH_AES_256_CBC_SHA384)
+ADR_BASE = /u01/app/oracle
+Note: "SSL_VERSION = 1.2 or 1.1" is the actual value, not a suggestion to use one or the other.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for network users logging on to privileged accounts.
+If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for network users logging on to non-privileged accounts.
+If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for local users logging on to privileged accounts.
+If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configure DBMS, OS and/or enterprise-level authentication/access mechanism to require multifactor authentication for local users logging on to non-privileged accounts.
+If appropriate, enable support for Transport Layer Security (TLS) protocols and multifactor authentication through the use of Smart Cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CAC/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Review DBMS settings, OS settings, and/or enterprise-level authentication/access mechanism settings to determine whether shared accounts exist. If group accounts do not exist, this is NA.
+Review DBMS settings to determine if individual authentication is required before shared authentication.
+If shared authentication does not require prior individual authentication, this is a finding.
+(Oracle Access Manager may be helpful in meeting this requirement. Notes on Oracle Access Manager follow.)
+Oracle Access Manager is used when there is a need for multifactor authentication of applications front-ending Oracle Datasets that may use group accounts. Oracle Access Manager supports using PKI-based smart cards (</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">CAC, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PIV) for multifactor authentication. When a user authenticates to a smart card application, the smart card engine produces a certificate-based authentication token. Can configure a certificate-based authentication scheme in Oracle Access Manager that uses information from the smart card certificate. Certificate-based authentication works with any smart card or similar device that presents an X.509 certificate.
+Check:
+First, check that the Authentication Module is set up properly:
+1) Go to Oracle Access Manager Home Screen and click the Policy Configuration tab.  Select the X509Scheme.
+2) Make sure the Authentication Module option is set to X509Plugin.
+Second, check that the Authentication policy is using the x509Scheme:
+1) Go to Oracle Access Manager Home Screen and click the Policy Configuration tab.
+2) Select Application Domains.  Select Search.
+3) Select the application domain protecting the Oracle Database.
+4) Select the Authentication Polices tab and Click Protected Resource Policy.
+5) Make sure the Authentication Scheme is set to x509Scheme.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An authentication process resists replay attacks if it is impractical to achieve a successful authentication by recording and replaying a previous authentication message.
+Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security), and time synchronous or challenge-response one-time authenticators.
+Replay attacks, if successfully used against a database account, could result in unfettered access to the database settings and data. A successful replay attack against a privileged database account could result in a complete compromise of the database.
+Oracle Database enables you to encrypt data that is sent over a network.  There is no distinction between privileged and non-privileged accounts.
+Encryption of network data provides data privacy so that unauthorized parties are not able to view plaintext data as it passes over the network. Oracle Database also provides protection against two forms of active attacks.
+Data modification attack:  An unauthorized party intercepting data in transit, altering it, and retransmitting it is a data modification attack. For example, intercepting a $100 bank deposit, changing the amount to $10,000, and retransmitting the higher amount is a data modification attack.
+Replay attack:  Repetitively retransmitting an entire set of valid data is a replay attack, such as intercepting a $100 bank withdrawal and retransmitting it ten times, thereby receiving $1,000.
+AES and Triple-DES operate in outer Cipher Block Chaining (CBC) mode.
+The DES algorithm uses a 56-bit key length.
+SHA-1 is in the process of being removed from service within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>the DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and it's use is to be limited during the transition to SHA-2.  Use of SHA-1 for digital signature generation is prohibited.  Allowable uses during the transition include CHECKSUM usage and verification of legacy certificate signatures.  SHA-1 is considered a temporary solution during legacy application transitionary periods and should not be engineered into new applications. SHA-2 is the path forward for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">An authentication process resists replay attacks if it is impractical to achieve a successful authentication by recording and replaying a previous authentication message.
+Techniques used to address this include protocols using nonces (e.g., numbers generated for a specific one-time use) or challenges (e.g., TLS, WS_Security), and time synchronous or challenge-response one-time authenticators.
+Replay attacks, if successfully used against a database account, could result in access to database data.  A successful replay attack against a non-privileged database account could result in a compromise of data stored on the database.
+Oracle Database enables you to encrypt data that is sent over a network.  There is no distinction between privileged and non-privileged accounts.
+Encryption of network data provides data privacy so that unauthorized parties are not able to view plaintext data as it passes over the network. Oracle Database also provides protection against two forms of active attacks.
+Data modification attack:  An unauthorized party intercepting data in transit, altering it, and retransmitting it is a data modification attack. For example, intercepting a $100 bank deposit, changing the amount to $10,000, and retransmitting the higher amount is a data modification attack.
+Replay attack:  Repetitively retransmitting an entire set of valid data is a replay attack, such as intercepting a $100 bank withdrawal and retransmitting it ten times, thereby receiving $1,000.
+AES and Triple-DES operate in outer Cipher Block Chaining (CBC) mode.
+The DES algorithm uses a 56-bit key length.
+SHA-1 is in the process of being removed from service within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>the DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and it's use is to be limited during the transition to SHA-2.  Use of SHA-1 for digital signature generation is prohibited.  Allowable uses during the transition include CHECKSUM usage and verification of legacy certificate signatures.  SHA-1 is considered a temporary solution during legacy application transitionary periods and should not be engineered into new applications. SHA-2 is the path forward for </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The DBMS must disable user accounts after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> days of inactivity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are managed and authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+For accounts managed by Oracle, check DBMS settings to determine if accounts can be automatically disabled by the system after 35 days of inactivity. Also, ask the DBA if an alternative method, such as a stored procedure run daily, to disable Oracle-managed accounts inactive for more than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> days, has been deployed.
+If the ability to disable accounts after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> days of inactivity, by either of these means, does not exist, this is a finding.
+- - - - -
+Check to see what profile each user is associated with, if any, with this query:
+select username, profile from dba_users order by 1,2;
+Then check the profile to see what the password_life_time is set to in the table dba_profiles; the password_life_time is a value stored in the LIMIT column, and identified by the value PASSWORD_LIFE_TIME in the RESOURCE_NAME column.
+SQL&gt;select profile, resource_name, resource_type, limit from dba_profiles where upper(resource_name) = 'PASSWORD_LIFE_TIME';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For accounts managed by Oracle, determine if it is practical and acceptable to require a password change every </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">35 days or fewer, rather than the standard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (as specified in SRG-APP-000174-DB-000080)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  If it is, issue the statement:
+ALTER PROFILE PPPPPP LIMIT PASSWORD_LIFE_TIME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+(See the Oracle-provided $ORACLE_HOME/rdbms/admin/secconf.sql script for examples.)
+If password changes every </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> days or fewer are unacceptable or impractical, implement an alternative method, such as a stored procedure run daily, to disable accounts inactive for more than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> days.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password verification function, if any, that is in use:
+SELECT * FROM SYS.DBA_PROFILES 
+WHERE RESOURCE_NAME = 'PASSWORD_VERIFY_FUNCTION'
+[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)]
+ORDER BY PROFILE;
+Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the name of the password verification function effective for each profile.
+If, for any profile, the function name is null, this is a finding.
+For each password verification function, examine its source code.
+If it does not enforce the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined minimum length (15 unless otherwise specified), this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
+If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requirements.
+(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file 
+&lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password reuse rule, if any, that is in effect:
+SELECT * FROM SYS.DBA_PROFILES 
+WHERE RESOURCE_NAME IN ('PASSWORD_REUSE_MAX', 'PASSWORD_REUSE_TIME')
+[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)]
+ORDER BY PROFILE, RESOURCE_NAME;
+Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the value of the PASSWORD_REUSE_MAX effective for each profile.
+If, for any profile, the PASSWORD_REUSE_MAX value does not enforce the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined minimum number of password changes before a password may be repeated (five or greater), this is a finding.
+PASSWORD_REUSE_MAX is effective if and only if PASSWORD_REUSE_TIME is specified, so if both are UNLIMITED, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
+If any user accounts are managed by Oracle:  For each profile, set the PASSWORD_REUSE_MAX to enforce the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-defined minimum number of password changes before a password may be repeated (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>six</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>five</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or greater).
+PASSWORD_REUSE_MAX is effective if and only if PASSWORD_REUSE_TIME is specified, so ensure also that it has a meaningful value.  Since the minimum password lifetime is 1 day, the smallest meaningful value is the same as the PASSWORD_REUSE_MAX value.
+Using PPPPPP as an example, the statement to do this is:
+ALTER PROFILE PPPPPP LIMIT PASSWORD_REUSE_MAX </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PASSWORD_REUSE_TIME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
+If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requirements.
+(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file
+&lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, no fix to the DBMS is required.
+If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requirements.
+(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file
+&lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If any user accounts are managed by Oracle:  Develop, test and implement a password verification function that enforces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requirements.
+(Oracle supplies a sample function called ORA12C_STRONG_VERIFY_FUNCTION, in the script file &lt;oracle_home&gt;/RDBMS/ADMIN/utlpwdmg.sql.  This can be used as the starting point for a customized function.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If all user accounts are managed and authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+For each profile that can be applied to accounts where authentication is under Oracle's control, determine the password verification function, if any, that is in use:
+SELECT * FROM SYS.DBA_PROFILES
+WHERE RESOURCE_NAME = 'PASSWORD_VERIFY_FUNCTION'
+[AND PROFILE NOT IN (&lt;list of non-applicable profiles&gt;)] ORDER BY PROFILE;
+Bearing in mind that a profile can inherit from another profile, and the root profile is called DEFAULT, determine the name of the password verification function effective for each profile.
+If, for any profile, the function name is null, this is a finding.
+For each password verification function, examine its source code.
+If it does not enforce the organization-defined minimum number of characters by which the password must differ from the previous password (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>six</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>eight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the characters unless otherwise specified), this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Procedures for establishing temporary passwords that meet </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> password requirements for new accounts must be defined, documented, and implemented.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+Where accounts are authenticated using passwords, review procedures and implementation evidence for creation of temporary passwords.
+If the procedures or evidence do not exist or do not enforce passwords to meet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> password requirements, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Implement procedures for assigning temporary passwords to user accounts.
+Procedures should include instructions to meet current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> password length and complexity requirements and provide a secure method to relay the temporary password to the user.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Limit concurrent connections for each system account to a number less than or equal to the organization-defined number of sessions using the following SQL. Create profiles that conform to the requirements. Assign users to the appropriate profile.
+The user profile, ORA_STIG_PROFILE, has been provided (starting with Oracle 12.1.0.2) to satisfy the STIG requirements pertaining to the profile parameters. Oracle recommends that this profile be customized with any site-specific requirements and assigned to all users where applicable.  Note: It remains necessary to create a customized replacement for the password validation function, ORA12C_STRONG_VERIFY_FUNCTION, if relying on this technique to verify password complexity.
+The defaults for ORA_STIG_PROFILE are set as follows:
+Resource Name                   Limit
+-------------                   ------
+COMPOSITE_LIMIT                 DEFAULT
+SESSIONS_PER_USER               DEFAULT
+CPU_PER_SESSION                 DEFAULT
+CPU_PER_CALL                    DEFAULT
+LOGICAL_READS_PER_SESSION       DEFAULT
+LOGICAL_READS_PER_CALL          DEFAULT
+IDLE_TIME                          15
+CONNECT_TIME                    DEFAULT
+PRIVATE_SGA                     DEFAULT
+FAILED_LOGIN_ATTEMPTS               3 
+PASSWORD_LIFE_TIME                 60
+PASSWORD_REUSE_TIME               365
+PASSWORD_REUSE_MAX                 10
+PASSWORD_VERIFY_FUNCTION    ORA12C_STRONG_VERIFY_FUNCTION
+PASSWORD_LOCK_TIME              UNLIMITED
+PASSWORD_GRACE_TIME                 5
+Change the value of SESSIONS_PER_USER (along with the other parameters, where relevant) from UNLIMITED to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-compliant, site-specific requirements and then assign users to the profile.
+ALTER PROFILE ORA_STIG_PROFILE LIMIT SESSIONS_PER_USER &lt;site-specific value&gt;;
+To assign the user to the profile do the following:
+ALTER USER &lt;username&gt; PROFILE ORA_STIG_PROFILE;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure DBMS settings to restrict functionality that could be used to initiate DoS attacks.
+Securing the Network Connection:
+Protecting the network and its traffic from inappropriate access or modification is the essence of network security. You should consider all paths the data travels, and assess the threats on each path and node. Then, take steps to lessen or eliminate those threats and the consequences of a security breach. In addition, monitor and audit to detect either increased threat levels or penetration attempts.
+The following practices improve network security:
+1. Disable the Default Listener.
+All listeners have a unique name instead of the name LISTENER and have startup protection.
+LISTENER=(DESCRIPTION =(ADDRESS = (PROTOCOL = TCP)(HOST=)(PORT = 0)))
+This configuration prevents the default listener from starting.
+2. Prevent online administration by requiring the administrator to have the write privilege on the listener.ora file on the server.
+a. Add or alter this line in the listener.ora file:
+ADMIN_RESTRICTIONS_LISTENER=ON
+b. Use RELOAD to reload the configuration.
+3. Set Protection against crafted network packets on database level.
+SEC_PROTOCOL_ERROR_TRACE_ACTION specifies the action that the database should take when bad packets are received from a possibly malicious client.
+SEC_PROTOCOL_ERROR_TRACE_ACTION = { NONE | TRACE | LOG | ALERT } (TRACE is the default)
+NONE: The database server ignores the bad packets and does not generate any trace files or log messages. (Not recommended)
+TRACE: A detailed trace file is generated when bad packets are received, which can be used to debug any problems in client/server communication.
+LOG: A minimal log message is printed in the alert logfile and in the server trace file. A minimal amount of disk space is used.
+ALERT: An alert message is sent to a DBA or monitoring console.
+SEC_PROTOCOL_ERROR_FURTHER_ACTION specifies the further execution of a server process when receiving bad packets from a possibly malicious client.
+SEC_PROTOCOL_ERROR_FURTHER_ACTION = { CONTINUE | (DELAY,integer) | (DROP,integer) } (DROP,3 is the default)
+CONTINUE: The server process continues execution. The database server may be subject to a Denial of Service (DoS) if bad packets continue to be sent by a malicious client. (Not recommended)
+(DELAY, integer) :The client experiences a delay of integer seconds before the server process accepts the next request from the same client connection. Malicious clients are prevented from excessive consumption of server resources while legitimate clients experience degradation in performance but can continue to function.
+(DROP, integer) : The server forcefully terminates the client connection after integer bad packets. The server protects itself at the expense of the client (for example, a client transaction may be lost). The client may reconnect and attempt the same operation.
+SEC_MAX_FAILED_LOGIN_ATTEMPTS specifies the number of authentication attempts that can be made by a client on a connection to the server process. After the specified number of failure attempts, the connection will be automatically dropped by the server process.
+SEC_MAX_FAILED_LOGIN_ATTEMPTS = n (3 is the default) Values range from 1 to unlimited. (A value of 1 to 3 is recommended)
+For more information about the parameters in listener.ora, see https://docs.oracle.com/database/121/NETRF/listener.htm#NETRF008
+4. When a host computer has multiple IP addresses associated with multiple network interface controller (NIC) cards, configure the listener to the specific IP address.
+You can restrict the listener to listen on a specific IP address. Oracle recommends that you specify the specific IP addresses on these types of computers, rather than allowing the listener to listen on all IP addresses. Restricting the listener to specific IP addresses helps to prevent an intruder from stealing a TCP end point from under the listener process.
+5. Restrict the privileges of the listener, so that it cannot read or write files in the database or the Oracle server address space.
+The default configuration for external procedures does not require a network listener to work with Oracle Database and the extproc agent. The extproc agent is spawned directly by Oracle Database and eliminates the risks that the extproc agent might be spawned by Oracle Listener unexpectedly. This default configuration is recommended for maximum security. For more information about securing external procedures see
+https://docs.oracle.com/database/121/DBSEG/app_devs.htm#DBSEG656
+However, the extproc agent can be configured to be spawned by a listener. In that case (not recommended) the listener should have restricted privileges.
+6. Use a firewall, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>IAW DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> network policy and guidance.
+Appropriately placed and configured firewalls can prevent outside access to your databases.
+7. Prevent unauthorized administration of the Oracle listener.
+Local administration of the listener is secure by default through the local operating system. Therefore configuring a password is neither required nor recommended for secure local administration. However, a password can be configured for the listener to provide security for administrative operations, such as starting or stopping the listener, viewing a list of supported services, or saving changes to the Listener Control configuration.
+By default, Oracle Net Listener permits only local administration for security reasons. As a policy, the listener can be administered only by the user who started it. This is enforced through local operating system authentication. For example, if user1 starts the listener, then only user1 can administer it. Any other user trying to administer the listener gets an error. The super user is the only exception.
+Oracle recommends that you perform listener administration in the default mode (secure by means of local operating system authentication), and access the system remotely using a remote logon. Oracle Enterprise Manager Cloud Control can also be used for remote administration.
+8. Encrypt network traffic.  (Mandatory for sensitive data and optional for non-sensitive, as covered in other STIG requirements.)
+Where applicable, use Oracle network data encryption to encrypt network traffic among clients, databases, and application servers.
+9. Set Connect Rate to organization defined limit. (Also required by O121-C2-019100/SRG-APP-000245-DB-000132)
+The connection rate limiter feature in Oracle Net Listener enables a database administrator to limit the number of new connections handled by the listener. When this feature is enabled, Oracle Net Listener imposes a user-specified maximum limit on the number of new connections handled by the listener every second.
+CONNECTION_RATE_LISTENER=10
+LISTENER=
+(ADDRESS_LIST=
+(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1521)(RATE_LIMIT=yes))
+(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1522)(RATE_LIMIT=yes))
+(ADDRESS=(PROTOCOL=tcp)(HOST=)(PORT=1526))
+)
+10. Setup Valid Node Checking.
+(See also O121-BP-025600.)
+Valid node checking is a security feature that protects DBMS instances from malevolent or errant Oracle Net connections over TCP/IP, without the need for a firewall or IP address filtering at the operating system-level. The feature is controlled by the three parameters; tcp.validnode_checking, tcp.invited_nodes, and tcp.excluded_nodes.
+Modify the sqlnet.ora file manually
+TCP.VALIDNODE_CHECKING=yes
+(Note: This assumes that a single sqlnet.ora file, in the default location, is in use. Please see the supplemental file "Non-default sqlnet.ora configurations.pdf" for how to find multiple and/or differently located sqlnet.ora files.)
+If this parameter is set to yes, then incoming connections are allowed only if they originate from a node that conforms to the list specified by TCP.INVITED_NODES or TCP.EXCLUDED_NODES parameters.
+The TCP.INVITED_NODES and TCP.EXCLUDED_NODES parameters are valid only when the TCP.VALIDNODE_CHECKING parameter is set to yes (no is the default).
+The TCP.INVITED_NODES and TCP.EXCLUDED_NODES parameters are valid only when the TCP.VALIDNODE_CHECKING parameter is set to yes.
+Modify the listener.ora file manually
+TCP.EXCLUDED_NODES Syntax:
+TCP.EXCLUDED_NODES=(hostname | ip_address, hostname | ip_address, ...)
+Example:
+TCP.EXCLUDED_NODES=(finance.us.example.com, mktg.us.example.com, 192.0.2.25, 172.30.*, 2001:DB8:200C:417A/32)
+TCP.INVITED_NODES Syntax:
+TCP.INVITED_NODES=(hostname | ip_address, hostname | ip_address, ...)
+Example:
+TCP.INVITED_NODES=(sales.us.example.com, hr.us.example.com, 192.0.*, 2001:DB8:200C:433B/32)
+Usage Notes:
+Use TCP.INVITED_NODES to specify which clients are allowed access to the database. This list takes precedence over the TCP.EXCLUDED_NODES parameter if both lists are present. These parameters can use wildcards for IPv4 addresses and CIDR notation for IPv4 and IPv6 addresses.
+11. Apply Listener Security Patches.
+(See also O121-C1-011100/SRG-APP-000133-DB-000205.)
+Critical Patch Updates are cumulative. Therefore, the latest patch will contain all previous security patches for the Listener.
+12. Ensure that listener logging is turned on.
+Listener logging is on by default. If logging is not on, configure logging for all listeners in order to capture Listener commands and brute force password attacks.
+13. Monitor the listener logfile.
+The logfile may contain TNS-01169, TNS-01189, TNS-01190, or TNS-12508 errors, which may signify attacks or inappropriate activity. Monitor the logfile and generate an alert whenever these errors are encountered.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The DBMS must automatically terminate emergency accounts after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an organization-defined time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for each type of account.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="12"/>
@@ -10213,11 +11420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10255,7 +11462,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="187">
@@ -10281,7 +11488,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.6">
@@ -10686,13 +11893,13 @@
         <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -10755,7 +11962,7 @@
         <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>116</v>
@@ -10775,10 +11982,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1077</v>
+        <v>1049</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>119</v>
@@ -10790,7 +11997,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1076</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="187">
@@ -10816,7 +12023,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1079</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="408" customHeight="1">
@@ -10988,7 +12195,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>162</v>
@@ -10997,7 +12204,7 @@
         <v>163</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -11290,10 +12497,10 @@
         <v>225</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>226</v>
@@ -11543,7 +12750,7 @@
         <v>281</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1084</v>
+        <v>1056</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>282</v>
@@ -11589,13 +12796,13 @@
         <v>292</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1085</v>
+        <v>1057</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1086</v>
+        <v>1058</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1087</v>
+        <v>1059</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
@@ -11661,10 +12868,10 @@
         <v>307</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1088</v>
+        <v>1060</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>304</v>
@@ -11822,7 +13029,7 @@
         <v>346</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1090</v>
+        <v>1062</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>347</v>
@@ -12115,16 +13322,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1091</v>
+        <v>1063</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>410</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>1092</v>
+        <v>1064</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1093</v>
+        <v>1065</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>411</v>
@@ -12144,10 +13351,10 @@
         <v>414</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1095</v>
+        <v>1067</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -12256,7 +13463,7 @@
         <v>436</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>288</v>
@@ -12299,16 +13506,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1097</v>
+        <v>1069</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1098</v>
+        <v>1070</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1099</v>
+        <v>1071</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>1100</v>
+        <v>1072</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>446</v>
@@ -12374,7 +13581,7 @@
         <v>461</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1101</v>
+        <v>1073</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>462</v>
@@ -12857,7 +14064,7 @@
         <v>584</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>1102</v>
+        <v>1074</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>585</v>
@@ -12995,7 +14202,7 @@
         <v>614</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>615</v>
@@ -13027,8 +14234,8 @@
         <v>622</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="340">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:7" ht="306">
+      <c r="A122" s="6" t="s">
         <v>623</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -13037,497 +14244,497 @@
       <c r="C122" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:7" ht="409.6">
+      <c r="A123" s="6" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="409.6">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="G123" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="306">
+      <c r="A124" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="340">
-      <c r="A124" s="1" t="s">
+      <c r="D124" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="G124" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="372">
+      <c r="A125" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="B125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="D125" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="372">
-      <c r="A125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="G125" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="255">
+      <c r="A126" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="B126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="356">
-      <c r="A126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:7" ht="409.6">
+      <c r="A127" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="E127" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="409.6">
-      <c r="A127" s="1" t="s">
+    <row r="128" spans="1:7" ht="409.6">
+      <c r="A128" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F128" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="G127" s="1" t="s">
+    </row>
+    <row r="129" spans="1:7" ht="409.6">
+      <c r="A129" s="6" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="409.6">
-      <c r="A128" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F129" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="F128" s="1" t="s">
+    </row>
+    <row r="130" spans="1:7" ht="409.6">
+      <c r="A130" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="409.6">
-      <c r="A129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="F130" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E129" s="1" t="s">
+    </row>
+    <row r="131" spans="1:7" ht="409.6">
+      <c r="A131" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="409.6">
-      <c r="A130" s="1" t="s">
+      <c r="E131" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="D130" s="1" t="s">
+    </row>
+    <row r="132" spans="1:7" ht="409.6">
+      <c r="A132" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="D132" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="409.6">
-      <c r="A131" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="1" t="s">
+    </row>
+    <row r="133" spans="1:7" ht="409.6">
+      <c r="A133" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="B133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="D133" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="409.6">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:7" ht="409.6">
+      <c r="A134" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E134" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E132" s="1" t="s">
+    </row>
+    <row r="135" spans="1:7" ht="404">
+      <c r="A135" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="409.6">
-      <c r="A133" s="1" t="s">
+      <c r="E135" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="1" t="s">
+    </row>
+    <row r="136" spans="1:7" ht="388">
+      <c r="A136" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="E136" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="G133" s="1" t="s">
+    </row>
+    <row r="137" spans="1:7" ht="356">
+      <c r="A137" s="5" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="409.6">
-      <c r="A134" s="1" t="s">
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F137" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G137" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F134" s="1" t="s">
+    </row>
+    <row r="138" spans="1:7" ht="388">
+      <c r="A138" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="B138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="404">
-      <c r="A135" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="F138" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E135" s="1" t="s">
+    </row>
+    <row r="139" spans="1:7" ht="372">
+      <c r="A139" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="B139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="D139" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="388">
-      <c r="A136" s="1" t="s">
+      <c r="F139" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="140" spans="1:7" ht="372">
+      <c r="A140" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F140" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="G136" s="1" t="s">
+    </row>
+    <row r="141" spans="1:7" ht="409.6">
+      <c r="A141" s="6" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="356">
-      <c r="A137" s="1" t="s">
+      <c r="B141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E141" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E137" s="1" t="s">
+    </row>
+    <row r="142" spans="1:7" ht="409.6">
+      <c r="A142" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="388">
-      <c r="A138" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E138" s="1" t="s">
+    </row>
+    <row r="143" spans="1:7" ht="409.6">
+      <c r="A143" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="372">
-      <c r="A139" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="372">
-      <c r="A140" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="409.6">
-      <c r="A141" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="409.6">
-      <c r="A142" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="409.6">
-      <c r="A143" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>745</v>
+      <c r="E143" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>1101</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>273</v>
@@ -13535,22 +14742,22 @@
     </row>
     <row r="144" spans="1:7" ht="409.6">
       <c r="A144" s="1" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>273</v>
@@ -13558,22 +14765,22 @@
     </row>
     <row r="145" spans="1:7" ht="409.6">
       <c r="A145" s="1" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>273</v>
@@ -13581,68 +14788,68 @@
     </row>
     <row r="146" spans="1:7" ht="409.6">
       <c r="A146" s="1" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="409.6">
       <c r="A147" s="1" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="289">
       <c r="A148" s="1" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
@@ -13650,91 +14857,91 @@
     </row>
     <row r="149" spans="1:7" ht="409.6">
       <c r="A149" s="1" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="409.6">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="356">
       <c r="A150" s="1" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="272">
       <c r="A151" s="1" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="409.6">
       <c r="A152" s="1" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>13</v>
@@ -13742,114 +14949,114 @@
     </row>
     <row r="153" spans="1:7" ht="409.6">
       <c r="A153" s="1" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="372">
       <c r="A154" s="1" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="409.6">
       <c r="A155" s="1" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="409.6">
       <c r="A156" s="1" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="409.6">
       <c r="A157" s="1" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>13</v>
@@ -13857,1011 +15064,1011 @@
     </row>
     <row r="158" spans="1:7" ht="409.6">
       <c r="A158" s="1" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="409.6">
       <c r="A159" s="1" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="409.6">
       <c r="A160" s="1" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="306">
       <c r="A161" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="409.6">
+      <c r="A162" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="388">
+      <c r="A163" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="409.6">
+      <c r="A164" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="409.6">
+      <c r="A165" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F161" s="1" t="s">
+    </row>
+    <row r="166" spans="1:7" ht="409.6">
+      <c r="A166" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="B166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="409.6">
-      <c r="A162" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="F162" s="1" t="s">
+    </row>
+    <row r="167" spans="1:7" ht="323">
+      <c r="A167" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="B167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="388">
-      <c r="A163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F163" s="1" t="s">
+    </row>
+    <row r="168" spans="1:7" ht="409.6">
+      <c r="A168" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="B168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="409.6">
-      <c r="A164" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="409.6">
-      <c r="A165" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="409.6">
-      <c r="A166" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="356">
-      <c r="A167" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="409.6">
-      <c r="A168" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="409.6">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="409.6">
+      <c r="A170" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="404">
+      <c r="A171" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="409.6">
+      <c r="A172" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="409.6">
+      <c r="A173" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="F169" s="1" t="s">
+    </row>
+    <row r="174" spans="1:7" ht="404">
+      <c r="A174" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="B174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="409.6">
-      <c r="A170" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="F170" s="1" t="s">
+    </row>
+    <row r="175" spans="1:7" ht="388">
+      <c r="A175" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="B175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="356">
-      <c r="A171" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="F171" s="1" t="s">
+    </row>
+    <row r="176" spans="1:7" ht="409.6">
+      <c r="A176" s="5" t="s">
         <v>905</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="409.6">
-      <c r="A172" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="409.6">
-      <c r="A173" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="404">
-      <c r="A174" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="388">
-      <c r="A175" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="409.6">
-      <c r="A176" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>932</v>
+        <v>906</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="289">
-      <c r="A177" s="1" t="s">
-        <v>936</v>
+      <c r="A177" s="5" t="s">
+        <v>910</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>940</v>
+        <v>914</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="409.6">
-      <c r="A178" s="1" t="s">
-        <v>942</v>
+      <c r="A178" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>943</v>
+        <v>917</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>944</v>
+        <v>918</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>946</v>
+        <v>919</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>1103</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>947</v>
+        <v>920</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="409.6">
-      <c r="A179" s="1" t="s">
-        <v>948</v>
+      <c r="A179" s="5" t="s">
+        <v>921</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>949</v>
+        <v>922</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>950</v>
+        <v>923</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>951</v>
+        <v>924</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>952</v>
+        <v>925</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="409.6">
-      <c r="A180" s="1" t="s">
-        <v>954</v>
+      <c r="A180" s="5" t="s">
+        <v>927</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>955</v>
+        <v>928</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>957</v>
+        <v>930</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>958</v>
+        <v>931</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>959</v>
+        <v>932</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="409.6">
-      <c r="A181" s="1" t="s">
-        <v>960</v>
+      <c r="A181" s="5" t="s">
+        <v>933</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>961</v>
+        <v>934</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>962</v>
+        <v>935</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>963</v>
+        <v>936</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>964</v>
+        <v>937</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="409.6">
-      <c r="A182" s="1" t="s">
-        <v>965</v>
+      <c r="A182" s="5" t="s">
+        <v>938</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>966</v>
+        <v>939</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>967</v>
+        <v>940</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>968</v>
+        <v>941</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>969</v>
+        <v>942</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="356">
-      <c r="A183" s="1" t="s">
-        <v>970</v>
+      <c r="A183" s="5" t="s">
+        <v>943</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>972</v>
+        <v>945</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>973</v>
+        <v>946</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>974</v>
+        <v>947</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="409.6">
-      <c r="A184" s="1" t="s">
-        <v>975</v>
+      <c r="A184" s="5" t="s">
+        <v>948</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>978</v>
+        <v>951</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="409.6">
-      <c r="A185" s="1" t="s">
-        <v>980</v>
+      <c r="A185" s="5" t="s">
+        <v>953</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>982</v>
+        <v>955</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>983</v>
+        <v>956</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>984</v>
+        <v>957</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="272">
-      <c r="A186" s="1" t="s">
-        <v>985</v>
+      <c r="A186" s="5" t="s">
+        <v>958</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>987</v>
+        <v>960</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>988</v>
+        <v>961</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="409.6">
-      <c r="A187" s="1" t="s">
-        <v>990</v>
+      <c r="A187" s="5" t="s">
+        <v>963</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>992</v>
+        <v>965</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>993</v>
+        <v>966</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>994</v>
+        <v>967</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="372">
-      <c r="A188" s="1" t="s">
-        <v>995</v>
+    <row r="188" spans="1:7" ht="409.6">
+      <c r="A188" s="5" t="s">
+        <v>968</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>996</v>
+        <v>969</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>997</v>
+        <v>970</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>998</v>
+        <v>971</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>999</v>
+        <v>972</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1000</v>
+        <v>973</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="409.6">
-      <c r="A189" s="1" t="s">
-        <v>1001</v>
+      <c r="A189" s="5" t="s">
+        <v>974</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1002</v>
+        <v>975</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1003</v>
+        <v>976</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1004</v>
+        <v>977</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1005</v>
+        <v>978</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="289">
-      <c r="A190" s="1" t="s">
-        <v>1006</v>
+      <c r="A190" s="5" t="s">
+        <v>979</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1008</v>
+        <v>981</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1009</v>
+        <v>982</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1010</v>
+        <v>983</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="356">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:7" ht="255">
+      <c r="A191" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="221">
+      <c r="A192" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="323">
+      <c r="A193" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="372">
+      <c r="A194" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="356">
+      <c r="A195" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="409.6">
+      <c r="A196" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="272">
-      <c r="A192" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="323">
-      <c r="A193" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="372">
-      <c r="A194" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="356">
-      <c r="A195" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="409.6">
-      <c r="A196" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="221">
-      <c r="A197" s="1" t="s">
-        <v>1044</v>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="187">
+      <c r="A197" s="5" t="s">
+        <v>1017</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="409.6">
-      <c r="A198" s="1" t="s">
-        <v>1049</v>
+      <c r="A198" s="5" t="s">
+        <v>1022</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="409.6">
-      <c r="A199" s="1" t="s">
-        <v>1054</v>
+      <c r="A199" s="6" t="s">
+        <v>1027</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>1058</v>
+        <v>1030</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="409.6">
-      <c r="A200" s="1" t="s">
-        <v>1060</v>
+      <c r="A200" s="5" t="s">
+        <v>1032</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1063</v>
+        <v>1035</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1064</v>
+        <v>1036</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="289">
-      <c r="A201" s="1" t="s">
-        <v>1066</v>
+      <c r="A201" s="5" t="s">
+        <v>1038</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>267</v>

--- a/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{83B7635B-EDCC-7B43-90A8-859FCF2AE53B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{89AFBC8C-FFF4-894E-A6EE-8590A944F632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-dat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1411" uniqueCount="1105">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1412" uniqueCount="1106">
   <si>
     <t>Vuln ID</t>
   </si>
@@ -5296,38 +5296,6 @@
 Note: User authentication and account management must be done via an enterprise-wide mechanism whenever possible. Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP. With respect to Oracle, this requirement applies to cases where it is necessary to have accounts directly managed by Oracle.</t>
   </si>
   <si>
-    <t>If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
-Review DBMS settings to determine if passwords must be changed periodically. If not, this is a finding:
-SELECT p1.profile,
-CASE p1.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
-CASE p2.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
-CASE p3.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
-CASE p4.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
-TO_CHAR(DECODE(p1.limit, 'DEFAULT', p3.limit, p1.limit) + DECODE(p2.limit, 'DEFAULT', p4.limit, p2.limit))
-END
-END
-END
-END effective_life_time
-FROM dba_profiles p1, dba_profiles p2, dba_profiles p3, dba_profiles p4
-WHERE p1.profile=p2.profile
-AND p3.profile='DEFAULT'
-AND p4.profile='DEFAULT'
-AND p1.resource_name='PASSWORD_LIFE_TIME'
-AND p2.resource_name='PASSWORD_GRACE_TIME'
-AND p3.resource_name='PASSWORD_LIFE_TIME' -- from DEFAULT profile
-AND p4.resource_name='PASSWORD_GRACE_TIME' -- from DEFAULT profile
-order by 1;
-If the ‚Äúeffective_life_time‚Äù is greater than ‚Äú60‚Äù for any profile applied to user accounts, and the need for this has not been documented and approved by the ISSO, this is a finding.
-If the value is greater than 35 for any profile applied to user accounts, and the DBMS is configured to use Password Lifetime to disable inactive accounts, this is a finding.</t>
-  </si>
-  <si>
-    <t>For user accounts managed by Oracle: Modify DBMS settings to force users to periodically change their passwords. For example, using PPPPPP to stand for a profile name:
-ALTER PROFILE PPPPPP LIMIT PASSWORD_LIFE_TIME 35 PASSWORD_GRACE_TIME 0;
-Do this for each profile applied to user accounts.
-(Note: Although the DoD requirement is for a password change every 60 days, using a value of ‚Äú35‚Äù facilitates the use of ‚ÄúPASSWORD_LIFE_TIME‚Äù as a means of locking accounts inactive for 35 days. But if ‚Äú35‚Äù is not a practical or acceptable limit for password lifetime, set it to the standard DoD value of ‚Äú60‚Äù.)
-Where a password lifetime longer than ‚Äú60‚Äù is needed, document the reasons and obtain ISSO approval.</t>
-  </si>
-  <si>
     <t>V-61741</t>
   </si>
   <si>
@@ -5414,32 +5382,10 @@
     <t>V-61745</t>
   </si>
   <si>
-    <t>Processes (services, applications, etc.) that connect to the DBMS independently of individual users, must use valid, current DoD-issued PKI certificates for authentication to the  DBMS.</t>
-  </si>
-  <si>
-    <t>Just as individual users must be authenticated, and just as they must use PKI-based authentication, so must any processes that connect to the DBMS.
-The DoD standard for authentication of a process or device communicating with another process or device is the presentation of a valid, current, DoD-issued Public Key Infrastructure (PKI) certificate that has previously been verified as Trusted by an administrator of the other process or device.
-This applies both to processes that run on the same server as the DBMS and to processes running on other computers.
-The Oracle-supplied accounts, SYS, SYSBACKUP, SYSDG, and SYSKM, are exceptions.  These cannot currently use certificate-based authentication.  For this reason among others, use of these accounts should be restricted to where it is truly needed.</t>
-  </si>
-  <si>
-    <t>Review configuration to confirm that accounts used by processes to connect to the DBMS are authenticated using valid, current DoD-issued PKI certificates.
-If any such account (other than SYS, SYSBACKUP, SYSDG, and SYSKM) is not certificate-based, this is a finding.</t>
-  </si>
-  <si>
-    <t>For each such account, use DoD certificate-based authentication.</t>
-  </si>
-  <si>
     <t>V-61747</t>
   </si>
   <si>
     <t>The DBMS must use  NIST-validated FIPS 140-2-compliant cryptography for authentication mechanisms.</t>
-  </si>
-  <si>
-    <t>Encryption is only as good as the encryption modules utilized. Unapproved cryptographic module algorithms cannot be verified and cannot be relied upon to provide confidentiality or integrity, and DoD data may be compromised due to weak algorithms.
-Applications utilizing encryption are required to use approved encryption modules that meet the requirements of applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
-FIPS 140-2 is the current standard for validating cryptographic modules, and NSA Type-X (where X=1, 2, 3, 4) products are NSA-certified hardware-based encryption modules.
-Authentication modules with weak encryption could allow an attacker to gain access to data stored in the database and to the administration settings of the DBMS.</t>
   </si>
   <si>
     <t>Check the following settings to see if FIPS 140-2 authentication/encryption is configured. If encryption is required but not configured, check with the DBA and system administrator to see if other mechanisms or third-party cryptography products are deployed for authentication.
@@ -5618,24 +5564,11 @@
     <t>V-61757</t>
   </si>
   <si>
-    <t>The DBMS must terminate the network connection associated with a communications session at the end of the session or 15 minutes of inactivity.</t>
-  </si>
-  <si>
     <t>Non-local maintenance and diagnostic activities are those activities conducted by individuals communicating through a network, either an external network (e.g., the Internet) or an internal network.
 The act of managing systems and applications includes the ability to access sensitive application information, such as system configuration details, diagnostic information, user information, and potentially sensitive application data.
 When applications provide a remote management capability inherent to the application, the application needs to ensure all sessions and network connections are terminated when non-local maintenance is completed.
 When network connections are left open after the database session has closed, the network session is open to session hijacking.
 The Oracle Listener inherently meets most of this SRG requirement.  When a user logs off, or times out, or encounters an unrecoverable network fault, the Oracle Listener terminates all sessions and network connections.  The remaining aspect of the requirement, the timeout because of inactivity, is configurable.</t>
-  </si>
-  <si>
-    <t>Review DBMS settings, OS settings, and vendor documentation to verify network connections are terminated when a database communications session is ended or after 15 minutes of inactivity.
-If the network connection is not terminated, this is a finding.
-The defined duration for these timeouts 15 minutes, except to fulfill documented and validated mission requirements.</t>
-  </si>
-  <si>
-    <t>Configure DBMS and/or OS settings to disconnect network sessions when database communication sessions have ended or after the DoD-defined period of inactivity.
-To configure this in Oracle, modify each relevant profile.  The resource name is IDLE_TIME, which is expressed in minutes.  Using PPPPPP as an example of a profile, set the timeout to 15 minutes with:
-ALTER PROFILE PPPPPP LIMIT IDLE_TIME 15;</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-001133
@@ -6001,21 +5934,6 @@
   </si>
   <si>
     <t>V-61777</t>
-  </si>
-  <si>
-    <t>Emergency application accounts are typically created due to an unforeseen operational event or could ostensibly be used in the event of a vendor support visit where a support representative requires a temporary unique account in order to perform diagnostic testing or conduct some other support-related activity. When these types of accounts are created, there is a risk that the temporary account may remain in place and active after the support representative has left.
-In the event emergency application accounts are required, the application must ensure accounts that are designated as temporary in nature shall automatically terminate these accounts after an organization-defined time period.  Such a process and capability greatly reduces the risk that accounts will be misused, hijacked, or application data compromised.
-Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP. This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.
-If it is possible for any temporary emergency accounts to be created and managed by Oracle, then the DBMS or application must provide or utilize a mechanism to automatically terminate such accounts after an organization-defined time period.
-Emergency database accounts must be automatically terminated after an organization-defined time period in order to mitigate the risk of the account being misused.</t>
-  </si>
-  <si>
-    <t>If the organization has a policy, consistently enforced, forbidding the creation of emergency or temporary accounts, this is not a finding.
-Check DBMS settings, OS settings, and/or enterprise-level authentication/access mechanisms settings to determine if emergency accounts are being automatically terminated by the system after an organization-defined time period. Check also for custom code (scheduled jobs, procedures, triggers, etc.) for achieving this. 
-If emergency accounts are not being terminated after an organization-defined time period, this is a finding.</t>
-  </si>
-  <si>
-    <t>Create a profile specifically for emergency or temporary accounts.  When creating the accounts, assign them to this profile.  Configure DBMS, OS, and/or enterprise-level authentication/access mechanisms, or implement custom code, to terminate accounts with this profile after an organization-defined time period.</t>
   </si>
   <si>
     <t xml:space="preserve">CCI-001682
@@ -7929,97 +7847,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Review the PPSM Technical Assurance List to acquire an up-to-date list of network protocols deemed nonsecure.
-(For definitive information on Ports, Protocols and Services Management (PPSM), refer to http://www.disa.mil/Services/Network-Services/Enterprise-Connections/PPSM)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Review DBMS settings to determine if the database is utilizing any network protocols deemed nonsecure.  If the DBMS is not using any network protocols deemed nonsecure, this is not a finding.
-If the database is utilizing protocols specified as nonsecure</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> in the PPSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, verify the protocols are explicitly identified in the System Security Plan and that they are in support of specific operational requirements. If they are not identified in the SSP or are not supporting specific operational requirements, this is a finding.
-If nonsecure network protocols are not being used but are not disabled in the DBMS's configuration, this is a finding.
-After determining the site-specific operational requirements and which protocols are explicitly defined in the System Security Plan, check the $TNS_ADMIN setting for the location of the Oracle listener.ora file.  The listener.ora file is a configuration file for Oracle Net Listener that identifies the following:
-A unique name for the listener, typically LISTENER
-A protocol address that it is accepting connection requests on, and
-A service it is listening for.
-If the listener.ora file shows a PROTOCOL= statement and the PROTOCOL is deemed nonsecure, that is a finding.
-LISTENER=
-  (DESCRIPTION=
-    (ADDRESS_LIST=
-      (ADDRESS=(PROTOCOL=tcp)(HOST=sale-server)(PORT=1521))
-      (ADDRESS=(PROTOCOL=ipc)(KEY=extproc))))
-SID_LIST_LISTENER=
-  (SID_LIST=
-    (SID_DESC=
-      (GLOBAL_DBNAME=sales.us.example.com)
-      (ORACLE_HOME=/oracle12c)
-      (SID_NAME=sales))
-    (SID_DESC=
-      (SID_NAME=plsextproc)+E49
-      (ORACLE_HOME=/oracle12c)
-      (PROGRAM=extproc)))
-Protocol Parameters
-The Oracle Listener and the Oracle Connection Manager are identified by protocol addresses. The information below contains the "Protocol-Specific Parameters" used by the Oracle protocol support.
-Protocol-Specific Parameters
-Protocol: IPC     Parameter: PROTOCOL  Notes: Specify ipc as the value.
-Protocol: IPC     Parameter: KEY       Notes: Specify a unique name for the service. Oracle recommends using the service name or SID of the service.
-Example: (PROTOCOL=ipc)(KEY=sales)
-Protocol: Named Pipes  Parameter: PROTOCOL  Notes: Specify nmp as the value.
-Protocol: Named Pipes  Parameter: SERVER    Notes: Specify the name of the Oracle server.
-Protocol: Named Pipes  Parameter: PIPE      Notes: Specify the pipe name used to connect to the database server.
-This is the same PIPE keyword specified on the server with Named Pipes.  This name can be any name.
-Example: (Protocol=nmp) (SERVER=USDOD) (PIPE=dbpipe01)
-Protocol: SDP     Parameter: PROTOCOL  Notes: Specify sdp as the value.
-Protocol: SDP     Parameter: HOST      Notes: Specify the host name or IP address of the computer.
-Protocol: SDP     Parameter: PORT      Notes: Specify the listening port number.
-Example: (PROTOCOL=sdp)(HOST=sales-server)(PORT=1521)
-         (PROTOCOL=sdp)(HOST=192.168.2.204)(PORT=1521)
-Protocol: TCP/IP  Parameter: PROTOCOL  Notes: Specify TCP as the value.
-Protocol: TCP/IP  Parameter: HOST      Notes: Specify the host name or IP address of the computer.
-Protocol: TCP/IP  Parameter: PORT      Notes: Specify the listening port number.
-Example: (PROTOCOL=tcp)(HOST=sales-server)(PORT=1521)
-         (PROTOCOL=tcp)(HOST=192.168.2.204)(PORT=1521)
-Protocol: TCP/IP with TLS  Parameter: PROTOCOL  Notes: Specify tcps as the value.
-Protocol: TCP/IP with TLS  Parameter: HOST      Notes: Specify the host name or IP address of the computer.
-Protocol: TCP/IP with TLS  Parameter: PORT      Notes: Specify the listening port number.
-                                                        Example:(PROTOCOL=tcps)(HOST=sales-server) (PORT=2484)
-        (PROTOCOL=tcps)(HOST=192.168.2.204)(PORT=2484)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Disable any network protocol listed as nonsecure</t>
     </r>
     <r>
@@ -8426,74 +8253,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Audit records can be generated from various components within the information system. (e.g., network interface, hard disk, modem, etc.). From an application perspective, certain specific application functionalities may be audited as well.
-The list of audited events is the set of events for which audits are to be generated. This set of events is typically a subset of the list of all events for which the system is capable of generating audit records (i.e., auditable events, timestamps, source and destination addresses, user/process identifiers, event descriptions, success/fail indications, file names involved, and access control or flow control rules invoked).
-Organizations define which application components shall provide auditable events.
-The DBMS must provide auditing for the list of events defined by the organization or risk negatively impacting forensic investigations into malicious behavior in the information system. Audit records can be generated from various components within the information system, such as network interfaces, hard disks, modems, etc. From an application perspective, certain specific application functionalities may be audited, as well.
-The list of audited events is the set of events for which audits are to be generated. This set of events is typically a subset of the list of all events for which the system is capable of generating audit records (i.e., auditable events, timestamps, source and destination addresses, user/process identifiers, event descriptions, success/fail indications, file names involved, and access control or flow control rules invoked).
-Organizations may define the organizational personnel accountable for determining which application components shall provide auditable events.
-Auditing provides accountability for changes made to the DBMS configuration or its objects and data. It provides a means to discover suspicious activity and unauthorized changes. Without auditing, a compromise may go undetected and without a means to determine accountability.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">Department of Defense has established the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">following </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defines</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>as</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the minimum set of auditable events. Most can be audited via Oracle settings; some - marked here with an asterisk - cannot, and may require OS settings.
-- Successful and unsuccessful attempts to access, modify, or delete privileges, security objects, security levels, or categories of information (e.g. classification levels).
-- Successful and unsuccessful logon attempts, privileged activities or other system level access
-- Starting and ending time for user access to the system, concurrent logons from different workstations.
-- Successful and unsuccessful accesses to objects.
-- All program initiations.
-- *All direct access to the information system.
-- All account creations, modifications, disabling, and terminations.
-- *All kernel module loads, unloads, and restarts.</t>
     </r>
   </si>
   <si>
@@ -10532,6 +10291,831 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for each type of account.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Emergency application accounts are typically created due to an unforeseen operational event or could ostensibly be used in the event of a vendor support visit where a support representative requires a temporary unique account in order to perform diagnostic testing or conduct some other support-related activity. When these types of accounts are created, there is a risk that the temporary account may remain in place and active after the support representative has left.
+In the event emergency application accounts are required, the application must ensure accounts that are designated as temporary in nature shall automatically terminate these accounts after an organization-defined time period.  Such a process and capability greatly reduces the risk that accounts will be misused, hijacked, or application data compromised.
+Note that user authentication and account management must be done via an enterprise-wide mechanism whenever possible.  Examples of enterprise-level authentication/access mechanisms include, but are not limited to, Active Directory and LDAP. This requirement applies to cases where it is necessary to have accounts directly managed by Oracle.
+If it is possible for any temporary emergency accounts to be created and managed by Oracle, then the DBMS or application must provide or utilize a mechanism to automatically terminate such accounts after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an organization-defined time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Emergency database accounts must be automatically terminated after an organization-defined time period in order to mitigate the risk of the account being misused.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the organization has a policy, consistently enforced, forbidding the creation of emergency or temporary accounts, this is not a finding.
+Check DBMS settings, OS settings, and/or enterprise-level authentication/access mechanisms settings to determine if emergency accounts are being automatically terminated by the system after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an organization-defined time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Check also for custom code (scheduled jobs, procedures, triggers, etc.) for achieving this. 
+If emergency accounts are not being terminated after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an organization-defined time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a profile specifically for emergency or temporary accounts.  When creating the accounts, assign them to this profile.  Configure DBMS, OS, and/or enterprise-level authentication/access mechanisms, or implement custom code, to terminate accounts with this profile after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>60 days</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>an organization-defined time period</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The DBMS must terminate the network connection associated with a communications session at the end of the session or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes of inactivity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Review DBMS settings, OS settings, and vendor documentation to verify network connections are terminated when a database communications session is ended or after </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes of inactivity.
+If the network connection is not terminated, this is a finding.
+The defined duration for these timeouts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes, except to fulfill documented and validated mission requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Configure DBMS and/or OS settings to disconnect network sessions when database communication sessions have ended or after the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-defined period of inactivity.
+To configure this in Oracle, modify each relevant profile.  The resource name is IDLE_TIME, which is expressed in minutes.  Using PPPPPP as an example of a profile, set the timeout to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> minutes with:
+ALTER PROFILE PPPPPP LIMIT IDLE_TIME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encryption is only as good as the encryption modules utilized. Unapproved cryptographic module algorithms cannot be verified and cannot be relied upon to provide confidentiality or integrity, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data may be compromised due to weak algorithms.
+Applications utilizing encryption are required to use approved encryption modules that meet the requirements of applicable federal laws, Executive Orders, directives, policies, regulations, standards, and guidance.
+FIPS 140-2 is the current standard for validating cryptographic modules, and NSA Type-X (where X=1, 2, 3, 4) products are NSA-certified hardware-based encryption modules.
+Authentication modules with weak encryption could allow an attacker to gain access to data stored in the database and to the administration settings of the DBMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processes (services, applications, etc.) that connect to the DBMS independently of individual users, must use valid, current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-issued PKI certificates for authentication to the  DBMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just as individual users must be authenticated, and just as they must use PKI-based authentication, so must any processes that connect to the DBMS.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> standard for authentication of a process or device communicating with another process or device is the presentation of a valid, current, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-issued Public Key Infrastructure (PKI) certificate that has previously been verified as Trusted by an administrator of the other process or device.
+This applies both to processes that run on the same server as the DBMS and to processes running on other computers.
+The Oracle-supplied accounts, SYS, SYSBACKUP, SYSDG, and SYSKM, are exceptions.  These cannot currently use certificate-based authentication.  For this reason among others, use of these accounts should be restricted to where it is truly needed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Review configuration to confirm that accounts used by processes to connect to the DBMS are authenticated using valid, current </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-issued PKI certificates.
+If any such account (other than SYS, SYSBACKUP, SYSDG, and SYSKM) is not certificate-based, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For each such account, use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> certificate-based authentication.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If all user accounts are authenticated by the OS or an enterprise-level authentication/access mechanism, and not by Oracle, this is not a finding.
+Review DBMS settings to determine if passwords must be changed periodically. If not, this is a finding:
+SELECT p1.profile,
+CASE p1.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
+CASE p2.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
+CASE p3.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
+CASE p4.limit WHEN 'UNLIMITED' THEN 'UNLIMITED' ELSE
+TO_CHAR(DECODE(p1.limit, 'DEFAULT', p3.limit, p1.limit) + DECODE(p2.limit, 'DEFAULT', p4.limit, p2.limit))
+END
+END
+END
+END effective_life_time
+FROM dba_profiles p1, dba_profiles p2, dba_profiles p3, dba_profiles p4
+WHERE p1.profile=p2.profile
+AND p3.profile='DEFAULT'
+AND p4.profile='DEFAULT'
+AND p1.resource_name='PASSWORD_LIFE_TIME'
+AND p2.resource_name='PASSWORD_GRACE_TIME'
+AND p3.resource_name='PASSWORD_LIFE_TIME' -- from DEFAULT profile
+AND p4.resource_name='PASSWORD_GRACE_TIME' -- from DEFAULT profile
+order by 1;
+If the ‚Äúeffective_life_time‚Äù is greater than ‚Äú60‚Äù for any profile applied to user accounts, and the need for this has not been documented and approved by the ISSO, this is a finding.
+If the value is greater than </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for any profile applied to user accounts, and the DBMS is configured to use Password Lifetime to disable inactive accounts, this is a finding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For user accounts managed by Oracle: Modify DBMS settings to force users to periodically change their passwords. For example, using PPPPPP to stand for a profile name:
+ALTER PROFILE PPPPPP LIMIT PASSWORD_LIFE_TIME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PASSWORD_GRACE_TIME 0;
+Do this for each profile applied to user accounts.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Note: Although the </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>DoD</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requirement is for a password change every 60 days, using a value of ‚Äú35‚Äù facilitates the use of ‚ÄúPASSWORD_LIFE_TIME‚Äù as a means of locking accounts inactive for 35 days. But if ‚Äú35‚Äù is not a practical or acceptable limit for password lifetime, set it to the standard DoD value of ‚Äú60‚Äù.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Where a password lifetime longer than ‚Äú60‚Äù is needed, document the reasons and obtain ISSO approval.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Review the PPSM Technical Assurance List to acquire an up-to-date list of network protocols deemed nonsecure.
+(For definitive information on Ports, Protocols and Services Management (PPSM), refer to http://www.disa.mil/Services/Network-Services/Enterprise-Connections/PPSM)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Review DBMS settings to determine if the database is utilizing any network protocols deemed nonsecure.  If the DBMS is not using any network protocols deemed nonsecure, this is not a finding.
+If the database is utilizing protocols specified as nonsecure</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> in the PPSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, verify the protocols are explicitly identified in the System Security Plan and that they are in support of specific operational requirements. If they are not identified in the SSP or are not supporting specific operational requirements, this is a finding.
+If nonsecure network protocols are not being used but are not disabled in the DBMS's configuration, this is a finding.
+After determining the site-specific operational requirements and which protocols are explicitly defined in the System Security Plan, check the $TNS_ADMIN setting for the location of the Oracle listener.ora file.  The listener.ora file is a configuration file for Oracle Net Listener that identifies the following:
+A unique name for the listener, typically LISTENER
+A protocol address that it is accepting connection requests on, and
+A service it is listening for.
+If the listener.ora file shows a PROTOCOL= statement and the PROTOCOL is deemed nonsecure, that is a finding.
+LISTENER=
+  (DESCRIPTION=
+    (ADDRESS_LIST=
+      (ADDRESS=(PROTOCOL=tcp)(HOST=sale-server)(PORT=1521))
+      (ADDRESS=(PROTOCOL=ipc)(KEY=extproc))))
+SID_LIST_LISTENER=
+  (SID_LIST=
+    (SID_DESC=
+      (GLOBAL_DBNAME=sales.us.example.com)
+      (ORACLE_HOME=/oracle12c)
+      (SID_NAME=sales))
+    (SID_DESC=
+      (SID_NAME=plsextproc)+E49
+      (ORACLE_HOME=/oracle12c)
+      (PROGRAM=extproc)))
+Protocol Parameters
+The Oracle Listener and the Oracle Connection Manager are identified by protocol addresses. The information below contains the "Protocol-Specific Parameters" used by the Oracle protocol support.
+Protocol-Specific Parameters
+Protocol: IPC     Parameter: PROTOCOL  Notes: Specify ipc as the value.
+Protocol: IPC     Parameter: KEY       Notes: Specify a unique name for the service. Oracle recommends using the service name or SID of the service.
+Example: (PROTOCOL=ipc)(KEY=sales)
+Protocol: Named Pipes  Parameter: PROTOCOL  Notes: Specify nmp as the value.
+Protocol: Named Pipes  Parameter: SERVER    Notes: Specify the name of the Oracle server.
+Protocol: Named Pipes  Parameter: PIPE      Notes: Specify the pipe name used to connect to the database server.
+This is the same PIPE keyword specified on the server with Named Pipes.  This name can be any name.
+Example: (Protocol=nmp) (SERVER=USDOD) (PIPE=dbpipe01)
+Protocol: SDP     Parameter: PROTOCOL  Notes: Specify sdp as the value.
+Protocol: SDP     Parameter: HOST      Notes: Specify the host name or IP address of the computer.
+Protocol: SDP     Parameter: PORT      Notes: Specify the listening port number.
+Example: (PROTOCOL=sdp)(HOST=sales-server)(PORT=1521)
+         (PROTOCOL=sdp)(HOST=192.168.2.204)(PORT=1521)
+Protocol: TCP/IP  Parameter: PROTOCOL  Notes: Specify TCP as the value.
+Protocol: TCP/IP  Parameter: HOST      Notes: Specify the host name or IP address of the computer.
+Protocol: TCP/IP  Parameter: PORT      Notes: Specify the listening port number.
+Example: (PROTOCOL=tcp)(HOST=sales-server)(PORT=1521)
+         (PROTOCOL=tcp)(HOST=192.168.2.204)(PORT=1521)
+Protocol: TCP/IP with TLS  Parameter: PROTOCOL  Notes: Specify tcps as the value.
+Protocol: TCP/IP with TLS  Parameter: HOST      Notes: Specify the host name or IP address of the computer.
+Protocol: TCP/IP with TLS  Parameter: PORT      Notes: Specify the listening port number.
+                                                        Example:(PROTOCOL=tcps)(HOST=sales-server) (PORT=2484)
+        (PROTOCOL=tcps)(HOST=192.168.2.204)(PORT=2484</t>
+    </r>
+  </si>
+  <si>
+    <t>Do we want to update all of these based on ARS values?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Audit records can be generated from various components within the information system. (e.g., network interface, hard disk, modem, etc.). From an application perspective, certain specific application functionalities may be audited as well.
+The list of audited events is the set of events for which audits are to be generated. This set of events is typically a subset of the list of all events for which the system is capable of generating audit records (i.e., auditable events, timestamps, source and destination addresses, user/process identifiers, event descriptions, success/fail indications, file names involved, and access control or flow control rules invoked).
+Organizations define which application components shall provide auditable events.
+The DBMS must provide auditing for the list of events defined by the organization or risk negatively impacting forensic investigations into malicious behavior in the information system. Audit records can be generated from various components within the information system, such as network interfaces, hard disks, modems, etc. From an application perspective, certain specific application functionalities may be audited, as well.
+The list of audited events is the set of events for which audits are to be generated. This set of events is typically a subset of the list of all events for which the system is capable of generating audit records (i.e., auditable events, timestamps, source and destination addresses, user/process identifiers, event descriptions, success/fail indications, file names involved, and access control or D90flow control rules invoked).
+Organizations may define the organizational personnel accountable for determining which application components shall provide auditable events.
+Auditing provides accountability for changes made to the DBMS configuration or its objects and data. It provides a means to discover suspicious activity and unauthorized changes. Without auditing, a compromise may go undetected and without a means to determine accountability.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Department of Defense has established the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">following </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defines</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the minimum set of auditable events. Most can be audited via Oracle settings; some - marked here with an asterisk - cannot, and may require OS settings.
+- Successful and unsuccessful attempts to access, modify, or delete privileges, security objects, security levels, or categories of information (e.g. classification levels).
+- Successful and unsuccessful logon attempts, privileged activities or other system level access
+- Starting and ending time for user access to the system, concurrent logons from different workstations.
+- Successful and unsuccessful accesses to objects.
+- All program initiations.
+- *All direct access to the information system.
+- All account creations, modifications, disabling, and terminations.
+- *All kernel module loads, unloads, and restarts.</t>
     </r>
   </si>
 </sst>
@@ -11423,8 +12007,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11462,7 +12047,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="187">
@@ -11488,7 +12073,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.6">
@@ -11893,13 +12478,13 @@
         <v>102</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -11962,7 +12547,7 @@
         <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>116</v>
@@ -11982,10 +12567,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1050</v>
+        <v>1036</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1037</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>119</v>
@@ -11997,7 +12582,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="187">
@@ -12023,7 +12608,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="408" customHeight="1">
@@ -12195,7 +12780,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>162</v>
@@ -12204,7 +12789,7 @@
         <v>163</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -12497,10 +13082,10 @@
         <v>225</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>226</v>
@@ -12555,7 +13140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="187">
+    <row r="49" spans="1:8" ht="187">
       <c r="A49" s="5" t="s">
         <v>237</v>
       </c>
@@ -12578,7 +13163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="409.6">
+    <row r="50" spans="1:8" ht="409.6">
       <c r="A50" s="5" t="s">
         <v>242</v>
       </c>
@@ -12601,7 +13186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="187">
+    <row r="51" spans="1:8" ht="187">
       <c r="A51" s="5" t="s">
         <v>247</v>
       </c>
@@ -12624,7 +13209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="409.6">
+    <row r="52" spans="1:8" ht="409.6">
       <c r="A52" s="5" t="s">
         <v>252</v>
       </c>
@@ -12647,7 +13232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="409.6">
+    <row r="53" spans="1:8" ht="409.6">
       <c r="A53" s="5" t="s">
         <v>257</v>
       </c>
@@ -12670,7 +13255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="409.6">
+    <row r="54" spans="1:8" ht="409.6">
       <c r="A54" s="5" t="s">
         <v>262</v>
       </c>
@@ -12693,7 +13278,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="272">
+    <row r="55" spans="1:8" ht="272">
       <c r="A55" s="5" t="s">
         <v>268</v>
       </c>
@@ -12716,7 +13301,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="409.6">
+    <row r="56" spans="1:8" ht="409.6">
       <c r="A56" s="5" t="s">
         <v>274</v>
       </c>
@@ -12739,7 +13324,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="409.6">
+    <row r="57" spans="1:8" ht="409.6">
       <c r="A57" s="6" t="s">
         <v>280</v>
       </c>
@@ -12750,7 +13335,7 @@
         <v>281</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>282</v>
@@ -12762,7 +13347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="409.6">
+    <row r="58" spans="1:8" ht="409.6">
       <c r="A58" s="5" t="s">
         <v>285</v>
       </c>
@@ -12785,7 +13370,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="409.6">
+    <row r="59" spans="1:8" ht="409.6">
       <c r="A59" s="6" t="s">
         <v>291</v>
       </c>
@@ -12796,19 +13381,19 @@
         <v>292</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1058</v>
+        <v>1103</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="409.6">
+    <row r="60" spans="1:8" ht="409.6">
       <c r="A60" s="5" t="s">
         <v>293</v>
       </c>
@@ -12831,8 +13416,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="409.6">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:8" ht="409.6">
+      <c r="A61" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -12853,8 +13438,11 @@
       <c r="G61" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="409.6">
+      <c r="H61" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="409.6">
       <c r="A62" s="6" t="s">
         <v>305</v>
       </c>
@@ -12868,16 +13456,16 @@
         <v>307</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="409.6">
+    <row r="63" spans="1:8" ht="409.6">
       <c r="A63" s="5" t="s">
         <v>308</v>
       </c>
@@ -12900,7 +13488,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="409.6">
+    <row r="64" spans="1:8" ht="409.6">
       <c r="A64" s="5" t="s">
         <v>314</v>
       </c>
@@ -13029,7 +13617,7 @@
         <v>346</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>347</v>
@@ -13322,16 +13910,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>410</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>411</v>
@@ -13351,10 +13939,10 @@
         <v>414</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
@@ -13463,7 +14051,7 @@
         <v>436</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1068</v>
+        <v>1105</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>288</v>
@@ -13499,23 +14087,23 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="409.6">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>446</v>
@@ -13581,7 +14169,7 @@
         <v>461</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>462</v>
@@ -14064,7 +14652,7 @@
         <v>584</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>585</v>
@@ -14202,7 +14790,7 @@
         <v>614</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>615</v>
@@ -14245,7 +14833,7 @@
         <v>624</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>625</v>
@@ -14268,7 +14856,7 @@
         <v>629</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>630</v>
@@ -14291,7 +14879,7 @@
         <v>633</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>634</v>
@@ -14314,7 +14902,7 @@
         <v>637</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>638</v>
@@ -14363,10 +14951,10 @@
         <v>648</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>649</v>
@@ -14389,7 +14977,7 @@
         <v>653</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>654</v>
@@ -14412,7 +15000,7 @@
         <v>658</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>659</v>
@@ -14435,7 +15023,7 @@
         <v>663</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>664</v>
@@ -14455,7 +15043,7 @@
         <v>667</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>668</v>
@@ -14475,7 +15063,7 @@
         <v>671</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>672</v>
@@ -14498,7 +15086,7 @@
         <v>676</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>677</v>
@@ -14518,16 +15106,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>681</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>682</v>
@@ -14547,10 +15135,10 @@
         <v>685</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>686</v>
@@ -14570,17 +15158,17 @@
         <v>689</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="356">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="6" t="s">
         <v>691</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -14596,7 +15184,7 @@
         <v>694</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>695</v>
@@ -14619,7 +15207,7 @@
         <v>699</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>700</v>
@@ -14642,7 +15230,7 @@
         <v>703</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>704</v>
@@ -14665,7 +15253,7 @@
         <v>707</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>708</v>
@@ -14685,10 +15273,10 @@
         <v>711</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>712</v>
@@ -14725,23 +15313,23 @@
         <v>8</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>720</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="409.6">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="5" t="s">
         <v>721</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -14764,7 +15352,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="409.6">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="6" t="s">
         <v>726</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -14776,540 +15364,540 @@
       <c r="D145" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>730</v>
+      <c r="E145" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>1102</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="409.6">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="G146" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:7" ht="409.6">
+      <c r="A147" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="409.6">
-      <c r="A147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="F147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:7" ht="289">
+      <c r="A148" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="289">
-      <c r="A148" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>747</v>
+      <c r="C148" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>1100</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="409.6">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="356">
+      <c r="A150" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G149" s="1" t="s">
+    </row>
+    <row r="151" spans="1:7" ht="272">
+      <c r="A151" s="5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="356">
-      <c r="A150" s="1" t="s">
+      <c r="B151" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G150" s="1" t="s">
+    </row>
+    <row r="152" spans="1:7" ht="409.6">
+      <c r="A152" s="5" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="272">
-      <c r="A151" s="1" t="s">
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="409.6">
-      <c r="A152" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="409.6">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="372">
+      <c r="A154" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="E154" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D153" s="1" t="s">
+    </row>
+    <row r="155" spans="1:7" ht="409.6">
+      <c r="A155" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="B155" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="372">
-      <c r="A154" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="D154" s="1" t="s">
+    </row>
+    <row r="156" spans="1:7" ht="409.6">
+      <c r="A156" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="409.6">
-      <c r="A155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="G156" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="409.6">
+      <c r="A157" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="B157" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>788</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="409.6">
-      <c r="A156" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="409.6">
-      <c r="A157" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="409.6">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="409.6">
+      <c r="A159" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D158" s="1" t="s">
+    </row>
+    <row r="160" spans="1:7" ht="409.6">
+      <c r="A160" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="B160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="409.6">
-      <c r="A159" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D159" s="1" t="s">
+    </row>
+    <row r="161" spans="1:7" ht="306">
+      <c r="A161" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="B161" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="409.6">
-      <c r="A160" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="306">
-      <c r="A161" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="409.6">
       <c r="A162" s="6" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>826</v>
+      <c r="C162" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>1092</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="388">
       <c r="A163" s="5" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="409.6">
       <c r="A164" s="5" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="409.6">
       <c r="A165" s="5" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="409.6">
       <c r="A166" s="5" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="323">
       <c r="A167" s="5" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="409.6">
       <c r="A168" s="5" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
@@ -15317,183 +15905,183 @@
     </row>
     <row r="169" spans="1:7" ht="409.6">
       <c r="A169" s="5" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="409.6">
       <c r="A170" s="5" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="404">
       <c r="A171" s="5" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="409.6">
       <c r="A172" s="5" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="409.6">
       <c r="A173" s="5" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="404">
       <c r="A174" s="5" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="388">
       <c r="A175" s="5" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="409.6">
       <c r="A176" s="5" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>348</v>
@@ -15501,114 +16089,114 @@
     </row>
     <row r="177" spans="1:7" ht="289">
       <c r="A177" s="5" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="409.6">
       <c r="A178" s="6" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="409.6">
       <c r="A179" s="5" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="409.6">
       <c r="A180" s="5" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="409.6">
       <c r="A181" s="5" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>13</v>
@@ -15616,22 +16204,22 @@
     </row>
     <row r="182" spans="1:7" ht="409.6">
       <c r="A182" s="5" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>13</v>
@@ -15639,22 +16227,22 @@
     </row>
     <row r="183" spans="1:7" ht="356">
       <c r="A183" s="5" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>13</v>
@@ -15662,22 +16250,22 @@
     </row>
     <row r="184" spans="1:7" ht="409.6">
       <c r="A184" s="5" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>13</v>
@@ -15685,22 +16273,22 @@
     </row>
     <row r="185" spans="1:7" ht="409.6">
       <c r="A185" s="5" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>13</v>
@@ -15708,22 +16296,22 @@
     </row>
     <row r="186" spans="1:7" ht="272">
       <c r="A186" s="5" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>267</v>
@@ -15731,22 +16319,22 @@
     </row>
     <row r="187" spans="1:7" ht="409.6">
       <c r="A187" s="5" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>267</v>
@@ -15754,45 +16342,45 @@
     </row>
     <row r="188" spans="1:7" ht="409.6">
       <c r="A188" s="5" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="409.6">
       <c r="A189" s="5" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>267</v>
@@ -15800,22 +16388,22 @@
     </row>
     <row r="190" spans="1:7" ht="289">
       <c r="A190" s="5" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>267</v>
@@ -15823,22 +16411,22 @@
     </row>
     <row r="191" spans="1:7" ht="255">
       <c r="A191" s="5" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>645</v>
@@ -15846,137 +16434,137 @@
     </row>
     <row r="192" spans="1:7" ht="221">
       <c r="A192" s="5" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="323">
       <c r="A193" s="5" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="372">
       <c r="A194" s="5" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="356">
       <c r="A195" s="5" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="409.6">
       <c r="A196" s="5" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="187">
       <c r="A197" s="5" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>13</v>
@@ -15984,22 +16572,22 @@
     </row>
     <row r="198" spans="1:7" ht="409.6">
       <c r="A198" s="5" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>13</v>
@@ -16007,68 +16595,68 @@
     </row>
     <row r="199" spans="1:7" ht="409.6">
       <c r="A199" s="6" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="409.6">
       <c r="A200" s="5" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="289">
       <c r="A201" s="5" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>267</v>

--- a/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
+++ b/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\earonne\Desktop\Greg\Overlay_Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhaynes/Documents/inspec/cms/cms-ars-3.1-moderate-oracle-database-12c-stig-overlay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E55B7B6B-5056-4480-B55C-3F3C2E139E5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5D15192E-CAC9-1846-BC80-2AE3ECEC734D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cms-ars-3.1-moderate-oracle-dat" sheetId="1" r:id="rId1"/>
@@ -11273,6 +11273,60 @@
     </r>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>(not in ARS)_x000B_Add to Overlay:_x000B_desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is not mandatory in CMS ARS 3.1'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CCI-000366
+The organization implements the security configuration settings.
+NIST SP 800-53 :: CM-6 b
+NIST SP 800-53A :: CM-6.1 (iv)
+NIST SP 800-53 Revision 4 :: CM-6 b 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CCI-000167
+The organization retains audit records for an organization-defined time period to provide support for after-the-fact investigations of security incidents and to meet regulatory and organizational information retention requirements.
+NIST SP 800-53 :: AU-11
+NIST SP 800-53A :: AU-11
+NIST SP 800-53 Revision 4 :: AU-11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -11299,12 +11353,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">AU-11
+      <t xml:space="preserve">CCI-001547
+The organization defines the frequency on which it will review information system accounts for compliance with account management requirements.
+NIST SP 800-53 :: AC-2
+NIST SP 800-53A :: AC-2
+NIST SP 800-53 Revision 4 :: AC-2
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -11342,13 +11399,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">AC-2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t>CCI-000148
+The organization reviews and analyzes information system audit records on an organization-defined frequency for indications of organization-defined inappropriate or unusual activity.
+NIST SP 800-53 :: AU-6 
+NIST SP 800-53A :: AU-6
+NIST SP 800-53 Revision 4 :: AU-6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -11356,39 +11418,8 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CCI-000366
-The organization implements the security configuration settings.
-NIST SP 800-53 :: CM-6 b
-NIST SP 800-53A :: CM-6.1 (iv)
-NIST SP 800-53 Revision 4 :: CM-6 b
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AU-6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <rPr>
         <strike/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
@@ -11399,24 +11430,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>(not in ARS)_x000B_Add to Overlay:_x000B_desc, 'caveat', 'Not applicable for this CMS ARS 3.1 overlay, since the related security control is not mandatory in CMS ARS 3.1'</t>
   </si>
   <si>
     <r>
@@ -11441,11 +11454,25 @@
         <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SC-23
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">CCI-001184
+The information system protects the authenticity of communications sessions.
+NIST SP 800-53 :: SC-23
+NIST SP 800-53A :: SC-23 
+NIST SP 800-53 Revision 4 :: SC-23
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -11454,7 +11481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -11629,6 +11656,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="34">
@@ -12382,27 +12415,27 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.84765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.84765625" style="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12428,7 +12461,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="187.2">
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -12448,11 +12481,11 @@
         <v>1100</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="409.5">
+    <row r="3" spans="1:8" ht="409.6">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -12476,7 +12509,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="202.8">
+    <row r="4" spans="1:8" ht="221">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -12500,7 +12533,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="218.4">
+    <row r="5" spans="1:8" ht="255">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -12524,7 +12557,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="409.5">
+    <row r="6" spans="1:8" ht="409.6">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -12548,7 +12581,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="327.60000000000002">
+    <row r="7" spans="1:8" ht="356">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
@@ -12572,7 +12605,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="171.6">
+    <row r="8" spans="1:8" ht="204">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -12596,7 +12629,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="187.2">
+    <row r="9" spans="1:8" ht="221">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -12620,7 +12653,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="171.6">
+    <row r="10" spans="1:8" ht="204">
       <c r="A10" s="6" t="s">
         <v>48</v>
       </c>
@@ -12644,7 +12677,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="409.5">
+    <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -12668,7 +12701,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="296.39999999999998">
+    <row r="12" spans="1:8" ht="323">
       <c r="A12" s="6" t="s">
         <v>58</v>
       </c>
@@ -12692,7 +12725,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="409.5">
+    <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="6" t="s">
         <v>63</v>
       </c>
@@ -12716,7 +12749,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="187.2">
+    <row r="14" spans="1:8" ht="204">
       <c r="A14" s="6" t="s">
         <v>68</v>
       </c>
@@ -12740,7 +12773,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="409.5">
+    <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -12764,7 +12797,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="409.5">
+    <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="6" t="s">
         <v>78</v>
       </c>
@@ -12788,7 +12821,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="409.5">
+    <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="6" t="s">
         <v>83</v>
       </c>
@@ -12812,7 +12845,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="171.6">
+    <row r="18" spans="1:8" ht="204">
       <c r="A18" s="6" t="s">
         <v>88</v>
       </c>
@@ -12836,7 +12869,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="405.6">
+    <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="6" t="s">
         <v>93</v>
       </c>
@@ -12860,7 +12893,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="171.6">
+    <row r="20" spans="1:8" ht="204">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -12884,7 +12917,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="409.5">
+    <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="6" t="s">
         <v>101</v>
       </c>
@@ -12908,7 +12941,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="409.5">
+    <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="6" t="s">
         <v>106</v>
       </c>
@@ -12932,7 +12965,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="249.6">
+    <row r="23" spans="1:8" ht="289">
       <c r="A23" s="7" t="s">
         <v>111</v>
       </c>
@@ -12956,7 +12989,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="187.2">
+    <row r="24" spans="1:8" ht="409.6">
       <c r="A24" s="7" t="s">
         <v>115</v>
       </c>
@@ -12976,11 +13009,11 @@
         <v>117</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="187.2">
+    <row r="25" spans="1:8" ht="409.6">
       <c r="A25" s="7" t="s">
         <v>118</v>
       </c>
@@ -13000,7 +13033,7 @@
         <v>122</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="H25" s="4"/>
     </row>
@@ -13028,7 +13061,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="409.5">
+    <row r="27" spans="1:8" ht="409.6">
       <c r="A27" s="6" t="s">
         <v>128</v>
       </c>
@@ -13052,7 +13085,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="409.5">
+    <row r="28" spans="1:8" ht="409.6">
       <c r="A28" s="6" t="s">
         <v>133</v>
       </c>
@@ -13076,7 +13109,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="390">
+    <row r="29" spans="1:8" ht="409.6">
       <c r="A29" s="6" t="s">
         <v>138</v>
       </c>
@@ -13100,7 +13133,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="409.5">
+    <row r="30" spans="1:8" ht="409.6">
       <c r="A30" s="6" t="s">
         <v>143</v>
       </c>
@@ -13124,7 +13157,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="218.4">
+    <row r="31" spans="1:8" ht="255">
       <c r="A31" s="6" t="s">
         <v>148</v>
       </c>
@@ -13148,7 +13181,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="187.2">
+    <row r="32" spans="1:8" ht="238">
       <c r="A32" s="6" t="s">
         <v>153</v>
       </c>
@@ -13172,7 +13205,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="358.8">
+    <row r="33" spans="1:8" ht="388">
       <c r="A33" s="7" t="s">
         <v>158</v>
       </c>
@@ -13196,7 +13229,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="171.6">
+    <row r="34" spans="1:8" ht="204">
       <c r="A34" s="6" t="s">
         <v>161</v>
       </c>
@@ -13220,7 +13253,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="296.39999999999998">
+    <row r="35" spans="1:8" ht="323">
       <c r="A35" s="6" t="s">
         <v>166</v>
       </c>
@@ -13244,7 +13277,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="171.6">
+    <row r="36" spans="1:8" ht="204">
       <c r="A36" s="6" t="s">
         <v>171</v>
       </c>
@@ -13268,7 +13301,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="171.6">
+    <row r="37" spans="1:8" ht="204">
       <c r="A37" s="6" t="s">
         <v>176</v>
       </c>
@@ -13292,7 +13325,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="312">
+    <row r="38" spans="1:8" ht="340">
       <c r="A38" s="6" t="s">
         <v>181</v>
       </c>
@@ -13316,7 +13349,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="343.2">
+    <row r="39" spans="1:8" ht="372">
       <c r="A39" s="6" t="s">
         <v>186</v>
       </c>
@@ -13340,7 +13373,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="187.2">
+    <row r="40" spans="1:8" ht="221">
       <c r="A40" s="6" t="s">
         <v>191</v>
       </c>
@@ -13364,7 +13397,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="187.2">
+    <row r="41" spans="1:8" ht="221">
       <c r="A41" s="6" t="s">
         <v>196</v>
       </c>
@@ -13412,7 +13445,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="171.6">
+    <row r="43" spans="1:8" ht="204">
       <c r="A43" s="6" t="s">
         <v>206</v>
       </c>
@@ -13436,7 +13469,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="409.5">
+    <row r="44" spans="1:8" ht="409.6">
       <c r="A44" s="6" t="s">
         <v>211</v>
       </c>
@@ -13460,7 +13493,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="171.6">
+    <row r="45" spans="1:8" ht="204">
       <c r="A45" s="6" t="s">
         <v>216</v>
       </c>
@@ -13484,7 +13517,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="234">
+    <row r="46" spans="1:8" ht="255">
       <c r="A46" s="7" t="s">
         <v>221</v>
       </c>
@@ -13508,7 +13541,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="218.4">
+    <row r="47" spans="1:8" ht="255">
       <c r="A47" s="6" t="s">
         <v>224</v>
       </c>
@@ -13532,7 +13565,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="409.5">
+    <row r="48" spans="1:8" ht="409.6">
       <c r="A48" s="6" t="s">
         <v>229</v>
       </c>
@@ -13556,7 +13589,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="171.6">
+    <row r="49" spans="1:8" ht="204">
       <c r="A49" s="6" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13613,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="409.5">
+    <row r="50" spans="1:8" ht="409.6">
       <c r="A50" s="6" t="s">
         <v>239</v>
       </c>
@@ -13604,7 +13637,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="171.6">
+    <row r="51" spans="1:8" ht="204">
       <c r="A51" s="6" t="s">
         <v>244</v>
       </c>
@@ -13628,7 +13661,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" ht="405.6">
+    <row r="52" spans="1:8" ht="409.6">
       <c r="A52" s="6" t="s">
         <v>249</v>
       </c>
@@ -13652,7 +13685,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="409.5">
+    <row r="53" spans="1:8" ht="409.6">
       <c r="A53" s="6" t="s">
         <v>254</v>
       </c>
@@ -13676,7 +13709,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="409.5">
+    <row r="54" spans="1:8" ht="409.6">
       <c r="A54" s="6" t="s">
         <v>259</v>
       </c>
@@ -13700,7 +13733,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="296.39999999999998">
+    <row r="55" spans="1:8" ht="340">
       <c r="A55" s="6" t="s">
         <v>265</v>
       </c>
@@ -13724,7 +13757,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="409.5">
+    <row r="56" spans="1:8" ht="409.6">
       <c r="A56" s="6" t="s">
         <v>271</v>
       </c>
@@ -13748,7 +13781,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="409.5">
+    <row r="57" spans="1:8" ht="409.6">
       <c r="A57" s="7" t="s">
         <v>277</v>
       </c>
@@ -13772,7 +13805,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="409.5">
+    <row r="58" spans="1:8" ht="409.6">
       <c r="A58" s="6" t="s">
         <v>282</v>
       </c>
@@ -13796,7 +13829,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="409.5">
+    <row r="59" spans="1:8" ht="409.6">
       <c r="A59" s="7" t="s">
         <v>288</v>
       </c>
@@ -13820,7 +13853,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="409.5">
+    <row r="60" spans="1:8" ht="409.6">
       <c r="A60" s="6" t="s">
         <v>290</v>
       </c>
@@ -13844,7 +13877,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="409.5">
+    <row r="61" spans="1:8" ht="409.6">
       <c r="A61" s="6" t="s">
         <v>296</v>
       </c>
@@ -13868,7 +13901,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="409.5">
+    <row r="62" spans="1:8" ht="409.6">
       <c r="A62" s="7" t="s">
         <v>302</v>
       </c>
@@ -13892,7 +13925,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="409.5">
+    <row r="63" spans="1:8" ht="409.6">
       <c r="A63" s="6" t="s">
         <v>305</v>
       </c>
@@ -13916,7 +13949,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="409.5">
+    <row r="64" spans="1:8" ht="409.6">
       <c r="A64" s="6" t="s">
         <v>311</v>
       </c>
@@ -13940,7 +13973,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="409.5">
+    <row r="65" spans="1:8" ht="409.6">
       <c r="A65" s="6" t="s">
         <v>317</v>
       </c>
@@ -13964,7 +13997,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="409.5">
+    <row r="66" spans="1:8" ht="409.6">
       <c r="A66" s="6" t="s">
         <v>323</v>
       </c>
@@ -13988,7 +14021,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="409.5">
+    <row r="67" spans="1:8" ht="409.6">
       <c r="A67" s="6" t="s">
         <v>329</v>
       </c>
@@ -14012,7 +14045,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="409.5">
+    <row r="68" spans="1:8" ht="409.6">
       <c r="A68" s="6" t="s">
         <v>335</v>
       </c>
@@ -14036,7 +14069,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="409.5">
+    <row r="69" spans="1:8" ht="409.6">
       <c r="A69" s="6" t="s">
         <v>341</v>
       </c>
@@ -14060,7 +14093,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="358.8">
+    <row r="70" spans="1:8" ht="404">
       <c r="A70" s="6" t="s">
         <v>346</v>
       </c>
@@ -14084,7 +14117,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="343.2">
+    <row r="71" spans="1:8" ht="388">
       <c r="A71" s="6" t="s">
         <v>351</v>
       </c>
@@ -14108,7 +14141,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="327.60000000000002">
+    <row r="72" spans="1:8" ht="388">
       <c r="A72" s="6" t="s">
         <v>356</v>
       </c>
@@ -14132,7 +14165,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="405.6">
+    <row r="73" spans="1:8" ht="409.6">
       <c r="A73" s="6" t="s">
         <v>361</v>
       </c>
@@ -14156,7 +14189,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="312">
+    <row r="74" spans="1:8" ht="372">
       <c r="A74" s="6" t="s">
         <v>365</v>
       </c>
@@ -14180,7 +14213,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="409.5">
+    <row r="75" spans="1:8" ht="409.6">
       <c r="A75" s="6" t="s">
         <v>370</v>
       </c>
@@ -14204,7 +14237,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="409.5">
+    <row r="76" spans="1:8" ht="409.6">
       <c r="A76" s="6" t="s">
         <v>375</v>
       </c>
@@ -14228,7 +14261,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="280.8">
+    <row r="77" spans="1:8" ht="323">
       <c r="A77" s="6" t="s">
         <v>380</v>
       </c>
@@ -14252,7 +14285,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="171.6">
+    <row r="78" spans="1:8" ht="204">
       <c r="A78" s="6" t="s">
         <v>385</v>
       </c>
@@ -14276,7 +14309,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="409.5">
+    <row r="79" spans="1:8" ht="409.6">
       <c r="A79" s="6" t="s">
         <v>390</v>
       </c>
@@ -14300,7 +14333,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="409.5">
+    <row r="80" spans="1:8" ht="409.6">
       <c r="A80" s="6" t="s">
         <v>395</v>
       </c>
@@ -14324,7 +14357,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" ht="409.5">
+    <row r="81" spans="1:8" ht="409.6">
       <c r="A81" s="6" t="s">
         <v>400</v>
       </c>
@@ -14348,7 +14381,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="409.5">
+    <row r="82" spans="1:8" ht="409.6">
       <c r="A82" s="7" t="s">
         <v>406</v>
       </c>
@@ -14372,7 +14405,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="409.5">
+    <row r="83" spans="1:8" ht="409.6">
       <c r="A83" s="7" t="s">
         <v>409</v>
       </c>
@@ -14396,7 +14429,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="409.5">
+    <row r="84" spans="1:8" ht="409.6">
       <c r="A84" s="6" t="s">
         <v>412</v>
       </c>
@@ -14420,7 +14453,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" ht="409.5">
+    <row r="85" spans="1:8" ht="409.6">
       <c r="A85" s="6" t="s">
         <v>418</v>
       </c>
@@ -14444,7 +14477,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" ht="409.5">
+    <row r="86" spans="1:8" ht="409.6">
       <c r="A86" s="6" t="s">
         <v>422</v>
       </c>
@@ -14468,7 +14501,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" ht="390">
+    <row r="87" spans="1:8" ht="409.6">
       <c r="A87" s="6" t="s">
         <v>427</v>
       </c>
@@ -14492,7 +14525,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" ht="409.5">
+    <row r="88" spans="1:8" ht="409.6">
       <c r="A88" s="7" t="s">
         <v>432</v>
       </c>
@@ -14516,7 +14549,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" ht="409.5">
+    <row r="89" spans="1:8" ht="409.6">
       <c r="A89" s="6" t="s">
         <v>436</v>
       </c>
@@ -14540,7 +14573,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="409.5">
+    <row r="90" spans="1:8" ht="409.6">
       <c r="A90" s="7" t="s">
         <v>442</v>
       </c>
@@ -14564,7 +14597,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="409.5">
+    <row r="91" spans="1:8" ht="409.6">
       <c r="A91" s="6" t="s">
         <v>444</v>
       </c>
@@ -14588,7 +14621,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="409.5">
+    <row r="92" spans="1:8" ht="409.6">
       <c r="A92" s="6" t="s">
         <v>450</v>
       </c>
@@ -14636,7 +14669,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="409.5">
+    <row r="94" spans="1:8" ht="409.6">
       <c r="A94" s="6" t="s">
         <v>461</v>
       </c>
@@ -14660,7 +14693,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" ht="409.5">
+    <row r="95" spans="1:8" ht="409.6">
       <c r="A95" s="6" t="s">
         <v>467</v>
       </c>
@@ -14684,7 +14717,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="409.5">
+    <row r="96" spans="1:8" ht="409.6">
       <c r="A96" s="6" t="s">
         <v>473</v>
       </c>
@@ -14708,7 +14741,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" ht="409.5">
+    <row r="97" spans="1:8" ht="409.6">
       <c r="A97" s="6" t="s">
         <v>479</v>
       </c>
@@ -14732,7 +14765,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" ht="409.5">
+    <row r="98" spans="1:8" ht="409.6">
       <c r="A98" s="6" t="s">
         <v>485</v>
       </c>
@@ -14756,7 +14789,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" ht="409.5">
+    <row r="99" spans="1:8" ht="409.6">
       <c r="A99" s="6" t="s">
         <v>491</v>
       </c>
@@ -14780,7 +14813,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" ht="296.39999999999998">
+    <row r="100" spans="1:8" ht="323">
       <c r="A100" s="6" t="s">
         <v>497</v>
       </c>
@@ -14804,7 +14837,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" ht="409.5">
+    <row r="101" spans="1:8" ht="409.6">
       <c r="A101" s="6" t="s">
         <v>503</v>
       </c>
@@ -14828,7 +14861,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" ht="409.5">
+    <row r="102" spans="1:8" ht="409.6">
       <c r="A102" s="6" t="s">
         <v>509</v>
       </c>
@@ -14852,7 +14885,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="409.5">
+    <row r="103" spans="1:8" ht="409.6">
       <c r="A103" s="6" t="s">
         <v>514</v>
       </c>
@@ -14876,7 +14909,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" ht="409.5">
+    <row r="104" spans="1:8" ht="409.6">
       <c r="A104" s="6" t="s">
         <v>520</v>
       </c>
@@ -14900,7 +14933,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="409.5">
+    <row r="105" spans="1:8" ht="409.6">
       <c r="A105" s="6" t="s">
         <v>526</v>
       </c>
@@ -14924,7 +14957,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="409.5">
+    <row r="106" spans="1:8" ht="409.6">
       <c r="A106" s="6" t="s">
         <v>532</v>
       </c>
@@ -14948,7 +14981,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="405.6">
+    <row r="107" spans="1:8" ht="409.6">
       <c r="A107" s="6" t="s">
         <v>538</v>
       </c>
@@ -14972,7 +15005,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" ht="409.5">
+    <row r="108" spans="1:8" ht="409.6">
       <c r="A108" s="6" t="s">
         <v>544</v>
       </c>
@@ -14996,7 +15029,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="280.8">
+    <row r="109" spans="1:8" ht="306">
       <c r="A109" s="6" t="s">
         <v>550</v>
       </c>
@@ -15020,7 +15053,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="409.5">
+    <row r="110" spans="1:8" ht="409.6">
       <c r="A110" s="6" t="s">
         <v>556</v>
       </c>
@@ -15044,7 +15077,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" ht="409.5">
+    <row r="111" spans="1:8" ht="409.6">
       <c r="A111" s="6" t="s">
         <v>562</v>
       </c>
@@ -15068,7 +15101,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" ht="343.2">
+    <row r="112" spans="1:8" ht="372">
       <c r="A112" s="6" t="s">
         <v>568</v>
       </c>
@@ -15092,7 +15125,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" ht="374.4">
+    <row r="113" spans="1:8" ht="409.6">
       <c r="A113" s="6" t="s">
         <v>574</v>
       </c>
@@ -15116,7 +15149,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="265.2">
+    <row r="114" spans="1:8" ht="289">
       <c r="A114" s="7" t="s">
         <v>579</v>
       </c>
@@ -15140,7 +15173,7 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="409.5">
+    <row r="115" spans="1:8" ht="409.6">
       <c r="A115" s="6" t="s">
         <v>583</v>
       </c>
@@ -15164,7 +15197,7 @@
       </c>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="409.5">
+    <row r="116" spans="1:8" ht="409.6">
       <c r="A116" s="6" t="s">
         <v>589</v>
       </c>
@@ -15188,7 +15221,7 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" ht="409.5">
+    <row r="117" spans="1:8" ht="409.6">
       <c r="A117" s="6" t="s">
         <v>594</v>
       </c>
@@ -15212,7 +15245,7 @@
       </c>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" ht="409.5">
+    <row r="118" spans="1:8" ht="409.6">
       <c r="A118" s="6" t="s">
         <v>599</v>
       </c>
@@ -15236,7 +15269,7 @@
       </c>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="409.5">
+    <row r="119" spans="1:8" ht="409.6">
       <c r="A119" s="6" t="s">
         <v>604</v>
       </c>
@@ -15260,7 +15293,7 @@
       </c>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" ht="409.5">
+    <row r="120" spans="1:8" ht="409.6">
       <c r="A120" s="7" t="s">
         <v>609</v>
       </c>
@@ -15284,7 +15317,7 @@
       </c>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" ht="409.5">
+    <row r="121" spans="1:8" ht="409.6">
       <c r="A121" s="6" t="s">
         <v>614</v>
       </c>
@@ -15308,7 +15341,7 @@
       </c>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" ht="343.2">
+    <row r="122" spans="1:8" ht="372">
       <c r="A122" s="7" t="s">
         <v>620</v>
       </c>
@@ -15332,7 +15365,7 @@
       </c>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" ht="409.5">
+    <row r="123" spans="1:8" ht="409.6">
       <c r="A123" s="7" t="s">
         <v>625</v>
       </c>
@@ -15356,7 +15389,7 @@
       </c>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" ht="343.2">
+    <row r="124" spans="1:8" ht="404">
       <c r="A124" s="7" t="s">
         <v>629</v>
       </c>
@@ -15380,7 +15413,7 @@
       </c>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" ht="409.5">
+    <row r="125" spans="1:8" ht="409.6">
       <c r="A125" s="7" t="s">
         <v>633</v>
       </c>
@@ -15404,7 +15437,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" ht="280.8">
+    <row r="126" spans="1:8" ht="340">
       <c r="A126" s="6" t="s">
         <v>637</v>
       </c>
@@ -15428,7 +15461,7 @@
       </c>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" ht="409.5">
+    <row r="127" spans="1:8" ht="409.6">
       <c r="A127" s="7" t="s">
         <v>643</v>
       </c>
@@ -15452,7 +15485,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" ht="409.5">
+    <row r="128" spans="1:8" ht="409.6">
       <c r="A128" s="7" t="s">
         <v>647</v>
       </c>
@@ -15476,7 +15509,7 @@
       </c>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" ht="409.5">
+    <row r="129" spans="1:8" ht="409.6">
       <c r="A129" s="7" t="s">
         <v>652</v>
       </c>
@@ -15500,7 +15533,7 @@
       </c>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" ht="409.5">
+    <row r="130" spans="1:8" ht="409.6">
       <c r="A130" s="7" t="s">
         <v>657</v>
       </c>
@@ -15524,7 +15557,7 @@
       </c>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" ht="409.5">
+    <row r="131" spans="1:8" ht="409.6">
       <c r="A131" s="7" t="s">
         <v>662</v>
       </c>
@@ -15548,7 +15581,7 @@
       </c>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" ht="409.5">
+    <row r="132" spans="1:8" ht="409.6">
       <c r="A132" s="7" t="s">
         <v>667</v>
       </c>
@@ -15572,7 +15605,7 @@
       </c>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" ht="409.5">
+    <row r="133" spans="1:8" ht="409.6">
       <c r="A133" s="7" t="s">
         <v>672</v>
       </c>
@@ -15596,7 +15629,7 @@
       </c>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" ht="409.5">
+    <row r="134" spans="1:8" ht="409.6">
       <c r="A134" s="7" t="s">
         <v>677</v>
       </c>
@@ -15620,7 +15653,7 @@
       </c>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" ht="409.5">
+    <row r="135" spans="1:8" ht="409.6">
       <c r="A135" s="7" t="s">
         <v>680</v>
       </c>
@@ -15644,7 +15677,7 @@
       </c>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" ht="409.5">
+    <row r="136" spans="1:8" ht="409.6">
       <c r="A136" s="7" t="s">
         <v>684</v>
       </c>
@@ -15668,7 +15701,7 @@
       </c>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" ht="343.2">
+    <row r="137" spans="1:8" ht="388">
       <c r="A137" s="7" t="s">
         <v>688</v>
       </c>
@@ -15692,7 +15725,7 @@
       </c>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" ht="374.4">
+    <row r="138" spans="1:8" ht="404">
       <c r="A138" s="7" t="s">
         <v>693</v>
       </c>
@@ -15716,7 +15749,7 @@
       </c>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" ht="343.2">
+    <row r="139" spans="1:8" ht="388">
       <c r="A139" s="7" t="s">
         <v>698</v>
       </c>
@@ -15740,7 +15773,7 @@
       </c>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" ht="343.2">
+    <row r="140" spans="1:8" ht="388">
       <c r="A140" s="7" t="s">
         <v>702</v>
       </c>
@@ -15764,7 +15797,7 @@
       </c>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" ht="409.5">
+    <row r="141" spans="1:8" ht="409.6">
       <c r="A141" s="7" t="s">
         <v>706</v>
       </c>
@@ -15788,7 +15821,7 @@
       </c>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" ht="409.5">
+    <row r="142" spans="1:8" ht="409.6">
       <c r="A142" s="6" t="s">
         <v>710</v>
       </c>
@@ -15812,7 +15845,7 @@
       </c>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="409.5">
+    <row r="143" spans="1:8" ht="409.6">
       <c r="A143" s="7" t="s">
         <v>716</v>
       </c>
@@ -15836,7 +15869,7 @@
       </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" ht="409.5">
+    <row r="144" spans="1:8" ht="409.6">
       <c r="A144" s="6" t="s">
         <v>718</v>
       </c>
@@ -15860,7 +15893,7 @@
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" ht="409.5">
+    <row r="145" spans="1:8" ht="409.6">
       <c r="A145" s="7" t="s">
         <v>723</v>
       </c>
@@ -15884,7 +15917,7 @@
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" ht="409.5">
+    <row r="146" spans="1:8" ht="409.6">
       <c r="A146" s="6" t="s">
         <v>726</v>
       </c>
@@ -15908,7 +15941,7 @@
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" ht="409.5">
+    <row r="147" spans="1:8" ht="409.6">
       <c r="A147" s="6" t="s">
         <v>732</v>
       </c>
@@ -15932,7 +15965,7 @@
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" ht="343.2">
+    <row r="148" spans="1:8" ht="388">
       <c r="A148" s="7" t="s">
         <v>738</v>
       </c>
@@ -15956,7 +15989,7 @@
       </c>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" ht="409.5">
+    <row r="149" spans="1:8" ht="409.6">
       <c r="A149" s="6" t="s">
         <v>739</v>
       </c>
@@ -15980,12 +16013,12 @@
       </c>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" ht="390">
+    <row r="150" spans="1:8" ht="409.6">
       <c r="A150" s="7" t="s">
         <v>744</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>745</v>
@@ -16003,10 +16036,10 @@
         <v>749</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="327.60000000000002">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="388">
       <c r="A151" s="6" t="s">
         <v>750</v>
       </c>
@@ -16030,7 +16063,7 @@
       </c>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" ht="409.5">
+    <row r="152" spans="1:8" ht="409.6">
       <c r="A152" s="6" t="s">
         <v>756</v>
       </c>
@@ -16054,12 +16087,12 @@
       </c>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" ht="409.5">
+    <row r="153" spans="1:8" ht="409.6">
       <c r="A153" s="7" t="s">
         <v>761</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>762</v>
@@ -16077,10 +16110,10 @@
         <v>766</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="409.5">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="409.6">
       <c r="A154" s="7" t="s">
         <v>767</v>
       </c>
@@ -16104,7 +16137,7 @@
       </c>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" ht="409.5">
+    <row r="155" spans="1:8" ht="409.6">
       <c r="A155" s="6" t="s">
         <v>770</v>
       </c>
@@ -16128,7 +16161,7 @@
       </c>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" ht="409.5">
+    <row r="156" spans="1:8" ht="409.6">
       <c r="A156" s="6" t="s">
         <v>776</v>
       </c>
@@ -16152,7 +16185,7 @@
       </c>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" ht="409.5">
+    <row r="157" spans="1:8" ht="409.6">
       <c r="A157" s="6" t="s">
         <v>781</v>
       </c>
@@ -16176,7 +16209,7 @@
       </c>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" ht="409.5">
+    <row r="158" spans="1:8" ht="409.6">
       <c r="A158" s="7" t="s">
         <v>786</v>
       </c>
@@ -16200,7 +16233,7 @@
       </c>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" ht="409.5">
+    <row r="159" spans="1:8" ht="409.6">
       <c r="A159" s="6" t="s">
         <v>791</v>
       </c>
@@ -16224,7 +16257,7 @@
       </c>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" ht="409.5">
+    <row r="160" spans="1:8" ht="409.6">
       <c r="A160" s="6" t="s">
         <v>797</v>
       </c>
@@ -16248,7 +16281,7 @@
       </c>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" ht="358.8">
+    <row r="161" spans="1:8" ht="388">
       <c r="A161" s="6" t="s">
         <v>803</v>
       </c>
@@ -16272,7 +16305,7 @@
       </c>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" ht="409.5">
+    <row r="162" spans="1:8" ht="409.6">
       <c r="A162" s="7" t="s">
         <v>809</v>
       </c>
@@ -16296,7 +16329,7 @@
       </c>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" ht="409.5">
+    <row r="163" spans="1:8" ht="409.6">
       <c r="A163" s="6" t="s">
         <v>811</v>
       </c>
@@ -16320,7 +16353,7 @@
       </c>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" ht="409.5">
+    <row r="164" spans="1:8" ht="409.6">
       <c r="A164" s="6" t="s">
         <v>817</v>
       </c>
@@ -16344,7 +16377,7 @@
       </c>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" ht="409.5">
+    <row r="165" spans="1:8" ht="409.6">
       <c r="A165" s="6" t="s">
         <v>823</v>
       </c>
@@ -16368,7 +16401,7 @@
       </c>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" ht="409.5">
+    <row r="166" spans="1:8" ht="409.6">
       <c r="A166" s="6" t="s">
         <v>829</v>
       </c>
@@ -16392,7 +16425,7 @@
       </c>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8" ht="327.60000000000002">
+    <row r="167" spans="1:8" ht="356">
       <c r="A167" s="6" t="s">
         <v>835</v>
       </c>
@@ -16416,7 +16449,7 @@
       </c>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" ht="409.5">
+    <row r="168" spans="1:8" ht="409.6">
       <c r="A168" s="6" t="s">
         <v>841</v>
       </c>
@@ -16440,7 +16473,7 @@
       </c>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" ht="409.5">
+    <row r="169" spans="1:8" ht="409.6">
       <c r="A169" s="6" t="s">
         <v>846</v>
       </c>
@@ -16464,7 +16497,7 @@
       </c>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8" ht="409.5">
+    <row r="170" spans="1:8" ht="409.6">
       <c r="A170" s="6" t="s">
         <v>852</v>
       </c>
@@ -16488,7 +16521,7 @@
       </c>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8" ht="358.8">
+    <row r="171" spans="1:8" ht="404">
       <c r="A171" s="6" t="s">
         <v>858</v>
       </c>
@@ -16512,7 +16545,7 @@
       </c>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8" ht="409.5">
+    <row r="172" spans="1:8" ht="409.6">
       <c r="A172" s="6" t="s">
         <v>864</v>
       </c>
@@ -16536,7 +16569,7 @@
       </c>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" ht="409.5">
+    <row r="173" spans="1:8" ht="409.6">
       <c r="A173" s="6" t="s">
         <v>870</v>
       </c>
@@ -16560,7 +16593,7 @@
       </c>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" ht="409.5">
+    <row r="174" spans="1:8" ht="409.6">
       <c r="A174" s="6" t="s">
         <v>876</v>
       </c>
@@ -16584,7 +16617,7 @@
       </c>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" ht="409.5">
+    <row r="175" spans="1:8" ht="409.6">
       <c r="A175" s="6" t="s">
         <v>882</v>
       </c>
@@ -16608,7 +16641,7 @@
       </c>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" ht="409.5">
+    <row r="176" spans="1:8" ht="409.6">
       <c r="A176" s="6" t="s">
         <v>888</v>
       </c>
@@ -16632,7 +16665,7 @@
       </c>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" ht="374.4">
+    <row r="177" spans="1:8" ht="404">
       <c r="A177" s="6" t="s">
         <v>893</v>
       </c>
@@ -16656,7 +16689,7 @@
       </c>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" ht="409.5">
+    <row r="178" spans="1:8" ht="409.6">
       <c r="A178" s="7" t="s">
         <v>899</v>
       </c>
@@ -16680,7 +16713,7 @@
       </c>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" ht="409.5">
+    <row r="179" spans="1:8" ht="409.6">
       <c r="A179" s="6" t="s">
         <v>904</v>
       </c>
@@ -16704,7 +16737,7 @@
       </c>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" ht="409.5">
+    <row r="180" spans="1:8" ht="409.6">
       <c r="A180" s="6" t="s">
         <v>910</v>
       </c>
@@ -16728,7 +16761,7 @@
       </c>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" ht="409.5">
+    <row r="181" spans="1:8" ht="409.6">
       <c r="A181" s="6" t="s">
         <v>916</v>
       </c>
@@ -16752,7 +16785,7 @@
       </c>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" ht="409.5">
+    <row r="182" spans="1:8" ht="409.6">
       <c r="A182" s="6" t="s">
         <v>921</v>
       </c>
@@ -16776,7 +16809,7 @@
       </c>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" ht="409.5">
+    <row r="183" spans="1:8" ht="409.6">
       <c r="A183" s="6" t="s">
         <v>926</v>
       </c>
@@ -16800,7 +16833,7 @@
       </c>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" ht="409.5">
+    <row r="184" spans="1:8" ht="409.6">
       <c r="A184" s="6" t="s">
         <v>931</v>
       </c>
@@ -16824,7 +16857,7 @@
       </c>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" ht="409.5">
+    <row r="185" spans="1:8" ht="409.6">
       <c r="A185" s="6" t="s">
         <v>936</v>
       </c>
@@ -16848,7 +16881,7 @@
       </c>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" ht="312">
+    <row r="186" spans="1:8" ht="372">
       <c r="A186" s="6" t="s">
         <v>941</v>
       </c>
@@ -16872,7 +16905,7 @@
       </c>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8" ht="409.5">
+    <row r="187" spans="1:8" ht="409.6">
       <c r="A187" s="6" t="s">
         <v>946</v>
       </c>
@@ -16896,7 +16929,7 @@
       </c>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" ht="374.4">
+    <row r="188" spans="1:8" ht="409.6">
       <c r="A188" s="6" t="s">
         <v>951</v>
       </c>
@@ -16920,7 +16953,7 @@
       </c>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" ht="409.5">
+    <row r="189" spans="1:8" ht="409.6">
       <c r="A189" s="6" t="s">
         <v>957</v>
       </c>
@@ -16944,7 +16977,7 @@
       </c>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8" ht="374.4">
+    <row r="190" spans="1:8" ht="409.6">
       <c r="A190" s="6" t="s">
         <v>962</v>
       </c>
@@ -16968,7 +17001,7 @@
       </c>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8" ht="280.8">
+    <row r="191" spans="1:8" ht="340">
       <c r="A191" s="6" t="s">
         <v>967</v>
       </c>
@@ -16992,7 +17025,7 @@
       </c>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" ht="265.2">
+    <row r="192" spans="1:8" ht="289">
       <c r="A192" s="6" t="s">
         <v>972</v>
       </c>
@@ -17016,7 +17049,7 @@
       </c>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8" ht="390">
+    <row r="193" spans="1:8" ht="409.6">
       <c r="A193" s="6" t="s">
         <v>978</v>
       </c>
@@ -17040,7 +17073,7 @@
       </c>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8" ht="409.5">
+    <row r="194" spans="1:8" ht="409.6">
       <c r="A194" s="6" t="s">
         <v>984</v>
       </c>
@@ -17064,7 +17097,7 @@
       </c>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8" ht="409.5">
+    <row r="195" spans="1:8" ht="409.6">
       <c r="A195" s="6" t="s">
         <v>990</v>
       </c>
@@ -17088,7 +17121,7 @@
       </c>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8" ht="409.5">
+    <row r="196" spans="1:8" ht="409.6">
       <c r="A196" s="6" t="s">
         <v>994</v>
       </c>
@@ -17112,7 +17145,7 @@
       </c>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" ht="171.6">
+    <row r="197" spans="1:8" ht="204">
       <c r="A197" s="6" t="s">
         <v>1000</v>
       </c>
@@ -17136,7 +17169,7 @@
       </c>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" ht="409.5">
+    <row r="198" spans="1:8" ht="409.6">
       <c r="A198" s="6" t="s">
         <v>1005</v>
       </c>
@@ -17160,7 +17193,7 @@
       </c>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8" ht="409.5">
+    <row r="199" spans="1:8" ht="409.6">
       <c r="A199" s="7" t="s">
         <v>1010</v>
       </c>
@@ -17184,7 +17217,7 @@
       </c>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8" ht="409.5">
+    <row r="200" spans="1:8" ht="409.6">
       <c r="A200" s="6" t="s">
         <v>1015</v>
       </c>
@@ -17208,7 +17241,7 @@
       </c>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8" ht="358.8">
+    <row r="201" spans="1:8" ht="388">
       <c r="A201" s="6" t="s">
         <v>1021</v>
       </c>
